--- a/data-migration/xlsx_1900-/1907_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1907_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7F0A11-6944-4452-87AA-554A89CF8634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C96E921-EB83-440D-A524-5CE623EEF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3433,9 +3433,6 @@
     <t>hitzig_hf</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3533,6 +3530,9 @@
   </si>
   <si>
     <t>gysi_a</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -3876,21 +3876,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E159" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
     <col min="6" max="6" width="61" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1907</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F1" t="s">
         <v>389</v>
@@ -3913,10 +3913,10 @@
         <v>1020</v>
       </c>
       <c r="I1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1907</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F2" t="s">
         <v>390</v>
@@ -3939,10 +3939,10 @@
         <v>1021</v>
       </c>
       <c r="I2" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1907</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F3" t="s">
         <v>391</v>
@@ -3965,10 +3965,10 @@
         <v>1116</v>
       </c>
       <c r="I3" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1907</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F4" t="s">
         <v>392</v>
@@ -3991,10 +3991,10 @@
         <v>1023</v>
       </c>
       <c r="I4" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1907</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F5" t="s">
         <v>393</v>
@@ -4017,10 +4017,10 @@
         <v>1023</v>
       </c>
       <c r="I5" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1907</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F6" t="s">
         <v>394</v>
@@ -4043,10 +4043,10 @@
         <v>1020</v>
       </c>
       <c r="I6" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1907</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F7" t="s">
         <v>395</v>
@@ -4069,10 +4069,10 @@
         <v>1024</v>
       </c>
       <c r="I7" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F8" t="s">
         <v>396</v>
@@ -4095,10 +4095,10 @@
         <v>1024</v>
       </c>
       <c r="I8" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1907</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F9" t="s">
         <v>397</v>
@@ -4121,10 +4121,10 @@
         <v>1134</v>
       </c>
       <c r="I9" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1907</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F10" t="s">
         <v>398</v>
@@ -4147,10 +4147,10 @@
         <v>1020</v>
       </c>
       <c r="I10" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1907</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F11" t="s">
         <v>399</v>
@@ -4173,13 +4173,13 @@
         <v>1135</v>
       </c>
       <c r="I11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J11" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1907</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F12" t="s">
         <v>400</v>
@@ -4202,13 +4202,13 @@
         <v>1135</v>
       </c>
       <c r="I12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J12" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1907</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F13" t="s">
         <v>401</v>
@@ -4231,13 +4231,13 @@
         <v>1135</v>
       </c>
       <c r="I13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J13" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1907</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F14" t="s">
         <v>402</v>
@@ -4260,10 +4260,10 @@
         <v>1026</v>
       </c>
       <c r="I14" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1907</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F15" t="s">
         <v>403</v>
@@ -4286,10 +4286,10 @@
         <v>1026</v>
       </c>
       <c r="I15" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1907</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F16" t="s">
         <v>404</v>
@@ -4312,10 +4312,10 @@
         <v>1116</v>
       </c>
       <c r="I16" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1907</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F17" t="s">
         <v>405</v>
@@ -4338,10 +4338,10 @@
         <v>1116</v>
       </c>
       <c r="I17" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1907</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F18" t="s">
         <v>406</v>
@@ -4364,10 +4364,10 @@
         <v>1116</v>
       </c>
       <c r="I18" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1907</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F19" t="s">
         <v>407</v>
@@ -4390,10 +4390,10 @@
         <v>1134</v>
       </c>
       <c r="I19" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1907</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F20" t="s">
         <v>408</v>
@@ -4416,10 +4416,10 @@
         <v>1134</v>
       </c>
       <c r="I20" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1907</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F21" t="s">
         <v>409</v>
@@ -4442,10 +4442,10 @@
         <v>1023</v>
       </c>
       <c r="I21" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1907</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F22" t="s">
         <v>410</v>
@@ -4468,10 +4468,10 @@
         <v>1134</v>
       </c>
       <c r="I22" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1907</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F23" t="s">
         <v>411</v>
@@ -4494,10 +4494,10 @@
         <v>1020</v>
       </c>
       <c r="I23" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1907</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F24" t="s">
         <v>412</v>
@@ -4520,13 +4520,13 @@
         <v>1135</v>
       </c>
       <c r="I24" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J24" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1907</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F25" t="s">
         <v>413</v>
@@ -4549,10 +4549,10 @@
         <v>1026</v>
       </c>
       <c r="I25" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1907</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F26" t="s">
         <v>414</v>
@@ -4575,10 +4575,10 @@
         <v>1026</v>
       </c>
       <c r="I26" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1907</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F27" t="s">
         <v>415</v>
@@ -4601,10 +4601,10 @@
         <v>1134</v>
       </c>
       <c r="I27" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1907</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F28" t="s">
         <v>416</v>
@@ -4627,10 +4627,10 @@
         <v>1027</v>
       </c>
       <c r="I28" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1907</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F29" t="s">
         <v>417</v>
@@ -4653,10 +4653,10 @@
         <v>1136</v>
       </c>
       <c r="I29" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1907</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F30" t="s">
         <v>418</v>
@@ -4679,10 +4679,10 @@
         <v>1136</v>
       </c>
       <c r="I30" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1907</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F31" t="s">
         <v>419</v>
@@ -4705,10 +4705,10 @@
         <v>1136</v>
       </c>
       <c r="I31" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1907</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F32" t="s">
         <v>420</v>
@@ -4728,13 +4728,13 @@
         <v>803</v>
       </c>
       <c r="H32" t="s">
-        <v>1137</v>
+        <v>1170</v>
       </c>
       <c r="I32" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1907</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F33" t="s">
         <v>421</v>
@@ -4757,10 +4757,10 @@
         <v>1028</v>
       </c>
       <c r="I33" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1907</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F34" t="s">
         <v>422</v>
@@ -4783,10 +4783,10 @@
         <v>1028</v>
       </c>
       <c r="I34" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1907</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F35" t="s">
         <v>423</v>
@@ -4809,10 +4809,10 @@
         <v>1029</v>
       </c>
       <c r="I35" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1907</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F36" t="s">
         <v>424</v>
@@ -4835,10 +4835,10 @@
         <v>1030</v>
       </c>
       <c r="I36" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1907</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F37" t="s">
         <v>425</v>
@@ -4861,10 +4861,10 @@
         <v>1029</v>
       </c>
       <c r="I37" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1907</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F38" t="s">
         <v>426</v>
@@ -4887,10 +4887,10 @@
         <v>1029</v>
       </c>
       <c r="I38" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1907</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F39" t="s">
         <v>427</v>
@@ -4910,13 +4910,13 @@
         <v>810</v>
       </c>
       <c r="H39" t="s">
-        <v>1137</v>
+        <v>1170</v>
       </c>
       <c r="I39" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1907</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F40" t="s">
         <v>428</v>
@@ -4939,10 +4939,10 @@
         <v>1031</v>
       </c>
       <c r="I40" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1907</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F41" t="s">
         <v>429</v>
@@ -4965,10 +4965,10 @@
         <v>1032</v>
       </c>
       <c r="I41" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1907</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F42" t="s">
         <v>430</v>
@@ -4991,10 +4991,10 @@
         <v>1027</v>
       </c>
       <c r="I42" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1907</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F43" t="s">
         <v>431</v>
@@ -5017,10 +5017,10 @@
         <v>1027</v>
       </c>
       <c r="I43" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1907</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F44" t="s">
         <v>432</v>
@@ -5043,10 +5043,10 @@
         <v>1032</v>
       </c>
       <c r="I44" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1907</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F45" t="s">
         <v>433</v>
@@ -5069,10 +5069,10 @@
         <v>1032</v>
       </c>
       <c r="I45" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1907</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F46" t="s">
         <v>434</v>
@@ -5092,16 +5092,16 @@
         <v>816</v>
       </c>
       <c r="H46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I46" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J46" t="s">
         <v>1154</v>
       </c>
-      <c r="J46" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1907</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F47" t="s">
         <v>435</v>
@@ -5124,10 +5124,10 @@
         <v>1033</v>
       </c>
       <c r="I47" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1907</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F48" t="s">
         <v>436</v>
@@ -5150,10 +5150,10 @@
         <v>1033</v>
       </c>
       <c r="I48" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1907</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F49" t="s">
         <v>437</v>
@@ -5173,16 +5173,16 @@
         <v>819</v>
       </c>
       <c r="H49" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I49" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J49" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1907</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F50" t="s">
         <v>438</v>
@@ -5202,16 +5202,16 @@
         <v>820</v>
       </c>
       <c r="H50" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J50" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1907</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F51" t="s">
         <v>439</v>
@@ -5234,10 +5234,10 @@
         <v>1034</v>
       </c>
       <c r="I51" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1907</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F52" t="s">
         <v>440</v>
@@ -5260,10 +5260,10 @@
         <v>1035</v>
       </c>
       <c r="I52" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1907</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F53" t="s">
         <v>441</v>
@@ -5286,10 +5286,10 @@
         <v>1035</v>
       </c>
       <c r="I53" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1907</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F54" t="s">
         <v>442</v>
@@ -5312,10 +5312,10 @@
         <v>1036</v>
       </c>
       <c r="I54" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1907</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F55" t="s">
         <v>443</v>
@@ -5338,10 +5338,10 @@
         <v>1036</v>
       </c>
       <c r="I55" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1907</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F56" t="s">
         <v>444</v>
@@ -5364,10 +5364,10 @@
         <v>1036</v>
       </c>
       <c r="I56" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1907</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F57" t="s">
         <v>445</v>
@@ -5390,10 +5390,10 @@
         <v>1133</v>
       </c>
       <c r="I57" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1907</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F58" t="s">
         <v>446</v>
@@ -5416,10 +5416,10 @@
         <v>1038</v>
       </c>
       <c r="I58" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1907</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F59" t="s">
         <v>447</v>
@@ -5439,13 +5439,13 @@
         <v>829</v>
       </c>
       <c r="H59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I59" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1907</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F60" t="s">
         <v>448</v>
@@ -5468,10 +5468,10 @@
         <v>1027</v>
       </c>
       <c r="I60" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1907</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F61" t="s">
         <v>449</v>
@@ -5494,10 +5494,10 @@
         <v>1136</v>
       </c>
       <c r="I61" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1907</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F62" t="s">
         <v>450</v>
@@ -5520,10 +5520,10 @@
         <v>1136</v>
       </c>
       <c r="I62" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1907</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F63" t="s">
         <v>451</v>
@@ -5546,10 +5546,10 @@
         <v>1028</v>
       </c>
       <c r="I63" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1907</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F64" t="s">
         <v>452</v>
@@ -5572,10 +5572,10 @@
         <v>1133</v>
       </c>
       <c r="I64" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1907</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F65" t="s">
         <v>453</v>
@@ -5598,10 +5598,10 @@
         <v>1027</v>
       </c>
       <c r="I65" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1907</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F66" t="s">
         <v>454</v>
@@ -5624,10 +5624,10 @@
         <v>1032</v>
       </c>
       <c r="I66" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1907</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F67" t="s">
         <v>455</v>
@@ -5650,10 +5650,10 @@
         <v>1033</v>
       </c>
       <c r="I67" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1907</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F68" t="s">
         <v>456</v>
@@ -5676,10 +5676,10 @@
         <v>1034</v>
       </c>
       <c r="I68" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1907</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F69" t="s">
         <v>457</v>
@@ -5702,10 +5702,10 @@
         <v>1035</v>
       </c>
       <c r="I69" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1907</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F70" t="s">
         <v>458</v>
@@ -5728,10 +5728,10 @@
         <v>1036</v>
       </c>
       <c r="I70" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1907</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F71" t="s">
         <v>459</v>
@@ -5754,10 +5754,10 @@
         <v>1133</v>
       </c>
       <c r="I71" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1907</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F72" t="s">
         <v>460</v>
@@ -5780,10 +5780,10 @@
         <v>1133</v>
       </c>
       <c r="I72" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1907</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F73" t="s">
         <v>461</v>
@@ -5806,10 +5806,10 @@
         <v>1133</v>
       </c>
       <c r="I73" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1907</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F74" t="s">
         <v>462</v>
@@ -5829,13 +5829,13 @@
         <v>843</v>
       </c>
       <c r="H74" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I74" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1907</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F75" t="s">
         <v>463</v>
@@ -5858,16 +5858,16 @@
         <v>1041</v>
       </c>
       <c r="I75" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K75" t="s">
         <v>1040</v>
       </c>
       <c r="L75" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1907</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F76" t="s">
         <v>464</v>
@@ -5890,10 +5890,10 @@
         <v>1041</v>
       </c>
       <c r="I76" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1907</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F77" t="s">
         <v>465</v>
@@ -5916,10 +5916,10 @@
         <v>1041</v>
       </c>
       <c r="I77" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1907</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F78" t="s">
         <v>466</v>
@@ -5942,10 +5942,10 @@
         <v>1040</v>
       </c>
       <c r="I78" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1907</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F79" t="s">
         <v>467</v>
@@ -5968,10 +5968,10 @@
         <v>1040</v>
       </c>
       <c r="I79" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1907</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F80" t="s">
         <v>468</v>
@@ -5994,10 +5994,10 @@
         <v>1042</v>
       </c>
       <c r="I80" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1907</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F81" t="s">
         <v>469</v>
@@ -6020,10 +6020,10 @@
         <v>1043</v>
       </c>
       <c r="I81" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1907</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F82" t="s">
         <v>470</v>
@@ -6046,10 +6046,10 @@
         <v>1043</v>
       </c>
       <c r="I82" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1907</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F83" t="s">
         <v>471</v>
@@ -6072,10 +6072,10 @@
         <v>1117</v>
       </c>
       <c r="I83" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1907</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F84" t="s">
         <v>472</v>
@@ -6098,10 +6098,10 @@
         <v>1117</v>
       </c>
       <c r="I84" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1907</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F85" t="s">
         <v>473</v>
@@ -6124,10 +6124,10 @@
         <v>1044</v>
       </c>
       <c r="I85" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1907</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F86" t="s">
         <v>474</v>
@@ -6150,10 +6150,10 @@
         <v>1044</v>
       </c>
       <c r="I86" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1907</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F87" t="s">
         <v>475</v>
@@ -6176,10 +6176,10 @@
         <v>1044</v>
       </c>
       <c r="I87" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1907</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F88" t="s">
         <v>476</v>
@@ -6202,10 +6202,10 @@
         <v>1044</v>
       </c>
       <c r="I88" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1907</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F89" t="s">
         <v>477</v>
@@ -6228,10 +6228,10 @@
         <v>1045</v>
       </c>
       <c r="I89" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1907</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F90" t="s">
         <v>478</v>
@@ -6254,10 +6254,10 @@
         <v>1045</v>
       </c>
       <c r="I90" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1907</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F91" t="s">
         <v>479</v>
@@ -6280,10 +6280,10 @@
         <v>1045</v>
       </c>
       <c r="I91" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1907</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F92" t="s">
         <v>480</v>
@@ -6303,16 +6303,16 @@
         <v>856</v>
       </c>
       <c r="H92" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I92" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J92" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1907</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F93" t="s">
         <v>481</v>
@@ -6332,16 +6332,16 @@
         <v>857</v>
       </c>
       <c r="H93" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I93" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J93" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1907</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F94" t="s">
         <v>482</v>
@@ -6364,10 +6364,10 @@
         <v>1118</v>
       </c>
       <c r="I94" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1907</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F95" t="s">
         <v>483</v>
@@ -6390,10 +6390,10 @@
         <v>1118</v>
       </c>
       <c r="I95" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1907</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F96" t="s">
         <v>484</v>
@@ -6416,10 +6416,10 @@
         <v>1118</v>
       </c>
       <c r="I96" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1907</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F97" t="s">
         <v>485</v>
@@ -6442,10 +6442,10 @@
         <v>1118</v>
       </c>
       <c r="I97" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1907</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F98" t="s">
         <v>486</v>
@@ -6468,10 +6468,10 @@
         <v>1046</v>
       </c>
       <c r="I98" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1907</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F99" t="s">
         <v>487</v>
@@ -6491,13 +6491,13 @@
         <v>861</v>
       </c>
       <c r="H99" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I99" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1907</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F100" t="s">
         <v>488</v>
@@ -6517,13 +6517,13 @@
         <v>862</v>
       </c>
       <c r="H100" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I100" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1907</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F101" t="s">
         <v>489</v>
@@ -6543,13 +6543,13 @@
         <v>863</v>
       </c>
       <c r="H101" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I101" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1907</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F102" t="s">
         <v>490</v>
@@ -6569,13 +6569,13 @@
         <v>825</v>
       </c>
       <c r="H102" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I102" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1907</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F103" t="s">
         <v>465</v>
@@ -6595,13 +6595,13 @@
         <v>846</v>
       </c>
       <c r="H103" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I103" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1907</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F104" t="s">
         <v>491</v>
@@ -6624,10 +6624,10 @@
         <v>1119</v>
       </c>
       <c r="I104" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1907</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F105" t="s">
         <v>492</v>
@@ -6650,10 +6650,10 @@
         <v>1119</v>
       </c>
       <c r="I105" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1907</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F106" t="s">
         <v>493</v>
@@ -6676,10 +6676,10 @@
         <v>1047</v>
       </c>
       <c r="I106" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1907</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F107" t="s">
         <v>494</v>
@@ -6702,10 +6702,10 @@
         <v>1047</v>
       </c>
       <c r="I107" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1907</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F108" t="s">
         <v>495</v>
@@ -6728,10 +6728,10 @@
         <v>1047</v>
       </c>
       <c r="I108" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1907</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F109" t="s">
         <v>496</v>
@@ -6754,10 +6754,10 @@
         <v>1047</v>
       </c>
       <c r="I109" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1907</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F110" t="s">
         <v>497</v>
@@ -6780,10 +6780,10 @@
         <v>1048</v>
       </c>
       <c r="I110" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1907</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F111" t="s">
         <v>498</v>
@@ -6806,10 +6806,10 @@
         <v>1048</v>
       </c>
       <c r="I111" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1907</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F112" t="s">
         <v>499</v>
@@ -6832,10 +6832,10 @@
         <v>1117</v>
       </c>
       <c r="I112" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1907</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F113" t="s">
         <v>500</v>
@@ -6858,10 +6858,10 @@
         <v>1117</v>
       </c>
       <c r="I113" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1907</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F114" t="s">
         <v>501</v>
@@ -6884,10 +6884,10 @@
         <v>1049</v>
       </c>
       <c r="I114" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1907</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F115" t="s">
         <v>502</v>
@@ -6910,10 +6910,10 @@
         <v>1049</v>
       </c>
       <c r="I115" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1907</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F116" t="s">
         <v>503</v>
@@ -6936,10 +6936,10 @@
         <v>1049</v>
       </c>
       <c r="I116" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1907</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F117" t="s">
         <v>504</v>
@@ -6962,10 +6962,10 @@
         <v>1039</v>
       </c>
       <c r="I117" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1907</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F118" t="s">
         <v>505</v>
@@ -6988,10 +6988,10 @@
         <v>1039</v>
       </c>
       <c r="I118" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1907</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F119" t="s">
         <v>506</v>
@@ -7014,10 +7014,10 @@
         <v>1050</v>
       </c>
       <c r="I119" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1907</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F120" t="s">
         <v>507</v>
@@ -7040,10 +7040,10 @@
         <v>1050</v>
       </c>
       <c r="I120" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1907</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F121" t="s">
         <v>508</v>
@@ -7066,10 +7066,10 @@
         <v>1128</v>
       </c>
       <c r="I121" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1907</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F122" t="s">
         <v>509</v>
@@ -7089,13 +7089,13 @@
         <v>874</v>
       </c>
       <c r="H122" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I122" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1907</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F123" t="s">
         <v>510</v>
@@ -7118,10 +7118,10 @@
         <v>1129</v>
       </c>
       <c r="I123" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1907</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F124" t="s">
         <v>511</v>
@@ -7144,10 +7144,10 @@
         <v>1130</v>
       </c>
       <c r="I124" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1907</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F125" t="s">
         <v>512</v>
@@ -7170,10 +7170,10 @@
         <v>1130</v>
       </c>
       <c r="I125" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1907</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F126" t="s">
         <v>513</v>
@@ -7196,10 +7196,10 @@
         <v>1051</v>
       </c>
       <c r="I126" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1907</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F127" t="s">
         <v>514</v>
@@ -7222,10 +7222,10 @@
         <v>1051</v>
       </c>
       <c r="I127" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1907</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F128" t="s">
         <v>515</v>
@@ -7248,10 +7248,10 @@
         <v>1051</v>
       </c>
       <c r="I128" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1907</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F129" t="s">
         <v>515</v>
@@ -7274,10 +7274,10 @@
         <v>1051</v>
       </c>
       <c r="I129" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1907</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F130" t="s">
         <v>516</v>
@@ -7300,10 +7300,10 @@
         <v>1051</v>
       </c>
       <c r="I130" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1907</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F131" t="s">
         <v>517</v>
@@ -7323,13 +7323,13 @@
         <v>788</v>
       </c>
       <c r="H131" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I131" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1907</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F132" t="s">
         <v>518</v>
@@ -7349,13 +7349,13 @@
         <v>781</v>
       </c>
       <c r="H132" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I132" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1907</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F133" t="s">
         <v>519</v>
@@ -7378,10 +7378,10 @@
         <v>1053</v>
       </c>
       <c r="I133" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1907</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F134" t="s">
         <v>520</v>
@@ -7404,10 +7404,10 @@
         <v>1053</v>
       </c>
       <c r="I134" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1907</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F135" t="s">
         <v>521</v>
@@ -7430,10 +7430,10 @@
         <v>1054</v>
       </c>
       <c r="I135" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1907</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F136" t="s">
         <v>522</v>
@@ -7456,10 +7456,10 @@
         <v>1054</v>
       </c>
       <c r="I136" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1907</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F137" t="s">
         <v>523</v>
@@ -7482,10 +7482,10 @@
         <v>1055</v>
       </c>
       <c r="I137" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1907</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F138" t="s">
         <v>524</v>
@@ -7508,10 +7508,10 @@
         <v>1055</v>
       </c>
       <c r="I138" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1907</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F139" t="s">
         <v>525</v>
@@ -7534,10 +7534,10 @@
         <v>1055</v>
       </c>
       <c r="I139" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1907</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F140" t="s">
         <v>526</v>
@@ -7557,19 +7557,19 @@
         <v>788</v>
       </c>
       <c r="H140" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I140" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K140" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="L140" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1907</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F141" t="s">
         <v>527</v>
@@ -7592,10 +7592,10 @@
         <v>1056</v>
       </c>
       <c r="I141" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1907</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F142" t="s">
         <v>528</v>
@@ -7618,10 +7618,10 @@
         <v>1056</v>
       </c>
       <c r="I142" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1907</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F143" t="s">
         <v>529</v>
@@ -7644,10 +7644,10 @@
         <v>1057</v>
       </c>
       <c r="I143" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1907</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F144" t="s">
         <v>530</v>
@@ -7670,10 +7670,10 @@
         <v>1057</v>
       </c>
       <c r="I144" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1907</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F145" t="s">
         <v>531</v>
@@ -7696,10 +7696,10 @@
         <v>1058</v>
       </c>
       <c r="I145" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1907</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F146" t="s">
         <v>532</v>
@@ -7722,10 +7722,10 @@
         <v>1058</v>
       </c>
       <c r="I146" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1907</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F147" t="s">
         <v>533</v>
@@ -7748,10 +7748,10 @@
         <v>1059</v>
       </c>
       <c r="I147" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1907</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F148" t="s">
         <v>534</v>
@@ -7774,10 +7774,10 @@
         <v>1059</v>
       </c>
       <c r="I148" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1907</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F149" t="s">
         <v>535</v>
@@ -7800,10 +7800,10 @@
         <v>1060</v>
       </c>
       <c r="I149" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1907</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F150" t="s">
         <v>536</v>
@@ -7826,10 +7826,10 @@
         <v>1060</v>
       </c>
       <c r="I150" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1907</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F151" t="s">
         <v>537</v>
@@ -7852,10 +7852,10 @@
         <v>1060</v>
       </c>
       <c r="I151" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1907</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F152" t="s">
         <v>538</v>
@@ -7878,10 +7878,10 @@
         <v>1126</v>
       </c>
       <c r="I152" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1907</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F153" t="s">
         <v>539</v>
@@ -7904,10 +7904,10 @@
         <v>1127</v>
       </c>
       <c r="I153" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1907</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F154" t="s">
         <v>540</v>
@@ -7930,10 +7930,10 @@
         <v>1127</v>
       </c>
       <c r="I154" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1907</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F155" t="s">
         <v>541</v>
@@ -7956,10 +7956,10 @@
         <v>1061</v>
       </c>
       <c r="I155" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1907</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F156" t="s">
         <v>542</v>
@@ -7982,10 +7982,10 @@
         <v>1061</v>
       </c>
       <c r="I156" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1907</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F157" t="s">
         <v>543</v>
@@ -8005,13 +8005,13 @@
         <v>788</v>
       </c>
       <c r="H157" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I157" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1907</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F158" t="s">
         <v>544</v>
@@ -8031,13 +8031,13 @@
         <v>775</v>
       </c>
       <c r="H158" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I158" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1907</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F159" t="s">
         <v>545</v>
@@ -8057,13 +8057,13 @@
         <v>891</v>
       </c>
       <c r="H159" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I159" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1907</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F160" t="s">
         <v>546</v>
@@ -8086,10 +8086,10 @@
         <v>1062</v>
       </c>
       <c r="I160" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1907</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F161" t="s">
         <v>547</v>
@@ -8112,10 +8112,10 @@
         <v>1062</v>
       </c>
       <c r="I161" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1907</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F162" t="s">
         <v>548</v>
@@ -8138,10 +8138,10 @@
         <v>1062</v>
       </c>
       <c r="I162" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1907</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F163" t="s">
         <v>549</v>
@@ -8164,10 +8164,10 @@
         <v>1063</v>
       </c>
       <c r="I163" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1907</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F164" t="s">
         <v>550</v>
@@ -8190,10 +8190,10 @@
         <v>1064</v>
       </c>
       <c r="I164" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1907</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F165" t="s">
         <v>551</v>
@@ -8216,10 +8216,10 @@
         <v>1064</v>
       </c>
       <c r="I165" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1907</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F166" t="s">
         <v>552</v>
@@ -8242,10 +8242,10 @@
         <v>1064</v>
       </c>
       <c r="I166" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1907</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F167" t="s">
         <v>553</v>
@@ -8268,10 +8268,10 @@
         <v>1065</v>
       </c>
       <c r="I167" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1907</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F168" t="s">
         <v>554</v>
@@ -8291,13 +8291,13 @@
         <v>788</v>
       </c>
       <c r="H168" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I168" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1907</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F169" t="s">
         <v>555</v>
@@ -8317,13 +8317,13 @@
         <v>781</v>
       </c>
       <c r="H169" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I169" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1907</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F170" t="s">
         <v>556</v>
@@ -8346,22 +8346,22 @@
         <v>1058</v>
       </c>
       <c r="I170" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K170" t="s">
         <v>1130</v>
       </c>
       <c r="L170" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="M170" t="s">
         <v>1048</v>
       </c>
       <c r="N170" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1907</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F171" t="s">
         <v>557</v>
@@ -8384,10 +8384,10 @@
         <v>1066</v>
       </c>
       <c r="I171" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1907</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F172" t="s">
         <v>558</v>
@@ -8410,10 +8410,10 @@
         <v>1066</v>
       </c>
       <c r="I172" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1907</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F173" t="s">
         <v>559</v>
@@ -8436,10 +8436,10 @@
         <v>1066</v>
       </c>
       <c r="I173" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1907</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F174" t="s">
         <v>560</v>
@@ -8462,10 +8462,10 @@
         <v>1067</v>
       </c>
       <c r="I174" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1907</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F175" t="s">
         <v>561</v>
@@ -8488,10 +8488,10 @@
         <v>1067</v>
       </c>
       <c r="I175" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1907</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F176" t="s">
         <v>562</v>
@@ -8514,10 +8514,10 @@
         <v>1067</v>
       </c>
       <c r="I176" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1907</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F177" t="s">
         <v>563</v>
@@ -8540,10 +8540,10 @@
         <v>1067</v>
       </c>
       <c r="I177" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1907</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F178" t="s">
         <v>564</v>
@@ -8563,13 +8563,13 @@
         <v>851</v>
       </c>
       <c r="H178" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I178" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1907</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F179" t="s">
         <v>565</v>
@@ -8589,13 +8589,13 @@
         <v>900</v>
       </c>
       <c r="H179" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I179" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1907</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F180" t="s">
         <v>566</v>
@@ -8615,13 +8615,13 @@
         <v>819</v>
       </c>
       <c r="H180" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I180" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1907</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F181" t="s">
         <v>567</v>
@@ -8644,10 +8644,10 @@
         <v>1064</v>
       </c>
       <c r="I181" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1907</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F182" t="s">
         <v>568</v>
@@ -8670,10 +8670,10 @@
         <v>1068</v>
       </c>
       <c r="I182" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1907</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F183" t="s">
         <v>569</v>
@@ -8696,10 +8696,10 @@
         <v>1068</v>
       </c>
       <c r="I183" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1907</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F184" t="s">
         <v>570</v>
@@ -8722,10 +8722,10 @@
         <v>1068</v>
       </c>
       <c r="I184" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1907</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F185" t="s">
         <v>571</v>
@@ -8748,10 +8748,10 @@
         <v>1069</v>
       </c>
       <c r="I185" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1907</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F186" t="s">
         <v>572</v>
@@ -8774,10 +8774,10 @@
         <v>1069</v>
       </c>
       <c r="I186" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1907</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F187" t="s">
         <v>573</v>
@@ -8800,10 +8800,10 @@
         <v>1069</v>
       </c>
       <c r="I187" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1907</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F188" t="s">
         <v>574</v>
@@ -8826,10 +8826,10 @@
         <v>1069</v>
       </c>
       <c r="I188" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1907</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F189" t="s">
         <v>575</v>
@@ -8852,10 +8852,10 @@
         <v>1069</v>
       </c>
       <c r="I189" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1907</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F190" t="s">
         <v>576</v>
@@ -8878,13 +8878,13 @@
         <v>1120</v>
       </c>
       <c r="I190" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J190" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1907</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F191" t="s">
         <v>577</v>
@@ -8907,13 +8907,13 @@
         <v>1120</v>
       </c>
       <c r="I191" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J191" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1907</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F192" t="s">
         <v>578</v>
@@ -8936,13 +8936,13 @@
         <v>1120</v>
       </c>
       <c r="I192" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J192" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1907</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F193" t="s">
         <v>579</v>
@@ -8965,13 +8965,13 @@
         <v>1120</v>
       </c>
       <c r="I193" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J193" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1907</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F194" t="s">
         <v>580</v>
@@ -8994,13 +8994,13 @@
         <v>1120</v>
       </c>
       <c r="I194" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J194" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1907</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F195" t="s">
         <v>581</v>
@@ -9023,10 +9023,10 @@
         <v>1070</v>
       </c>
       <c r="I195" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1907</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F196" t="s">
         <v>582</v>
@@ -9049,10 +9049,10 @@
         <v>1070</v>
       </c>
       <c r="I196" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1907</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F197" t="s">
         <v>583</v>
@@ -9075,10 +9075,10 @@
         <v>1070</v>
       </c>
       <c r="I197" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1907</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F198" t="s">
         <v>584</v>
@@ -9101,10 +9101,10 @@
         <v>1070</v>
       </c>
       <c r="I198" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1907</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F199" t="s">
         <v>585</v>
@@ -9127,10 +9127,10 @@
         <v>1070</v>
       </c>
       <c r="I199" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1907</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F200" t="s">
         <v>586</v>
@@ -9153,10 +9153,10 @@
         <v>1070</v>
       </c>
       <c r="I200" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1907</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F201" t="s">
         <v>587</v>
@@ -9179,10 +9179,10 @@
         <v>1071</v>
       </c>
       <c r="I201" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1907</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F202" t="s">
         <v>588</v>
@@ -9205,10 +9205,10 @@
         <v>1071</v>
       </c>
       <c r="I202" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1907</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F203" t="s">
         <v>589</v>
@@ -9231,10 +9231,10 @@
         <v>1072</v>
       </c>
       <c r="I203" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1907</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F204" t="s">
         <v>590</v>
@@ -9257,10 +9257,10 @@
         <v>1072</v>
       </c>
       <c r="I204" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1907</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F205" t="s">
         <v>591</v>
@@ -9283,10 +9283,10 @@
         <v>1072</v>
       </c>
       <c r="I205" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1907</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F206" t="s">
         <v>592</v>
@@ -9309,10 +9309,10 @@
         <v>1073</v>
       </c>
       <c r="I206" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1907</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F207" t="s">
         <v>593</v>
@@ -9335,10 +9335,10 @@
         <v>1074</v>
       </c>
       <c r="I207" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1907</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F208" t="s">
         <v>594</v>
@@ -9361,10 +9361,10 @@
         <v>1073</v>
       </c>
       <c r="I208" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1907</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F209" t="s">
         <v>595</v>
@@ -9387,10 +9387,10 @@
         <v>1073</v>
       </c>
       <c r="I209" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1907</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F210" t="s">
         <v>596</v>
@@ -9413,10 +9413,10 @@
         <v>1074</v>
       </c>
       <c r="I210" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1907</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F211" t="s">
         <v>597</v>
@@ -9439,10 +9439,10 @@
         <v>1075</v>
       </c>
       <c r="I211" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1907</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F212" t="s">
         <v>598</v>
@@ -9465,10 +9465,10 @@
         <v>1076</v>
       </c>
       <c r="I212" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1907</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F213" t="s">
         <v>599</v>
@@ -9491,10 +9491,10 @@
         <v>1077</v>
       </c>
       <c r="I213" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1907</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F214" t="s">
         <v>600</v>
@@ -9517,10 +9517,10 @@
         <v>1078</v>
       </c>
       <c r="I214" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1907</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F215" t="s">
         <v>601</v>
@@ -9543,10 +9543,10 @@
         <v>1075</v>
       </c>
       <c r="I215" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1907</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F216" t="s">
         <v>602</v>
@@ -9569,10 +9569,10 @@
         <v>1075</v>
       </c>
       <c r="I216" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1907</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F217" t="s">
         <v>603</v>
@@ -9595,10 +9595,10 @@
         <v>1078</v>
       </c>
       <c r="I217" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1907</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F218" t="s">
         <v>604</v>
@@ -9618,13 +9618,13 @@
         <v>788</v>
       </c>
       <c r="H218" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I218" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1907</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F219" t="s">
         <v>605</v>
@@ -9647,10 +9647,10 @@
         <v>1121</v>
       </c>
       <c r="I219" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1907</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F220" t="s">
         <v>606</v>
@@ -9673,10 +9673,10 @@
         <v>1076</v>
       </c>
       <c r="I220" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1907</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F221" t="s">
         <v>607</v>
@@ -9699,10 +9699,10 @@
         <v>1074</v>
       </c>
       <c r="I221" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1907</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F222" t="s">
         <v>608</v>
@@ -9725,10 +9725,10 @@
         <v>1078</v>
       </c>
       <c r="I222" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1907</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F223" t="s">
         <v>609</v>
@@ -9751,10 +9751,10 @@
         <v>1074</v>
       </c>
       <c r="I223" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1907</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F224" t="s">
         <v>610</v>
@@ -9777,10 +9777,10 @@
         <v>1121</v>
       </c>
       <c r="I224" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1907</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F225" t="s">
         <v>611</v>
@@ -9803,10 +9803,10 @@
         <v>1121</v>
       </c>
       <c r="I225" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1907</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F226" t="s">
         <v>612</v>
@@ -9829,10 +9829,10 @@
         <v>1078</v>
       </c>
       <c r="I226" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1907</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F227" t="s">
         <v>613</v>
@@ -9855,10 +9855,10 @@
         <v>1025</v>
       </c>
       <c r="I227" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1907</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F228" t="s">
         <v>614</v>
@@ -9881,10 +9881,10 @@
         <v>1023</v>
       </c>
       <c r="I228" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1907</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F229" t="s">
         <v>615</v>
@@ -9907,10 +9907,10 @@
         <v>1122</v>
       </c>
       <c r="I229" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1907</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F230" t="s">
         <v>616</v>
@@ -9933,10 +9933,10 @@
         <v>1122</v>
       </c>
       <c r="I230" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1907</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F231" t="s">
         <v>617</v>
@@ -9959,13 +9959,13 @@
         <v>1125</v>
       </c>
       <c r="I231" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J231" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1907</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F232" t="s">
         <v>618</v>
@@ -9988,10 +9988,10 @@
         <v>1079</v>
       </c>
       <c r="I232" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1907</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F233" t="s">
         <v>619</v>
@@ -10014,13 +10014,13 @@
         <v>1125</v>
       </c>
       <c r="I233" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J233" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1907</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F234" t="s">
         <v>620</v>
@@ -10043,10 +10043,10 @@
         <v>1022</v>
       </c>
       <c r="I234" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1907</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F235" t="s">
         <v>621</v>
@@ -10069,10 +10069,10 @@
         <v>1022</v>
       </c>
       <c r="I235" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1907</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F236" t="s">
         <v>622</v>
@@ -10095,13 +10095,13 @@
         <v>1125</v>
       </c>
       <c r="I236" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J236" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1907</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F237" t="s">
         <v>623</v>
@@ -10124,10 +10124,10 @@
         <v>1122</v>
       </c>
       <c r="I237" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1907</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F238" t="s">
         <v>624</v>
@@ -10150,10 +10150,10 @@
         <v>1079</v>
       </c>
       <c r="I238" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1907</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F239" t="s">
         <v>625</v>
@@ -10176,10 +10176,10 @@
         <v>1080</v>
       </c>
       <c r="I239" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1907</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F240" t="s">
         <v>626</v>
@@ -10202,10 +10202,10 @@
         <v>1080</v>
       </c>
       <c r="I240" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1907</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F241" t="s">
         <v>627</v>
@@ -10225,13 +10225,13 @@
         <v>781</v>
       </c>
       <c r="H241" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I241" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1907</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F242" t="s">
         <v>628</v>
@@ -10251,13 +10251,13 @@
         <v>780</v>
       </c>
       <c r="H242" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I242" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1907</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F243" t="s">
         <v>629</v>
@@ -10280,10 +10280,10 @@
         <v>1080</v>
       </c>
       <c r="I243" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1907</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F244" t="s">
         <v>630</v>
@@ -10306,13 +10306,13 @@
         <v>1125</v>
       </c>
       <c r="I244" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J244" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1907</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F245" t="s">
         <v>631</v>
@@ -10335,10 +10335,10 @@
         <v>1122</v>
       </c>
       <c r="I245" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1907</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F246" t="s">
         <v>632</v>
@@ -10361,10 +10361,10 @@
         <v>1080</v>
       </c>
       <c r="I246" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1907</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F247" t="s">
         <v>633</v>
@@ -10387,10 +10387,10 @@
         <v>1037</v>
       </c>
       <c r="I247" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1907</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F248" t="s">
         <v>634</v>
@@ -10413,10 +10413,10 @@
         <v>1037</v>
       </c>
       <c r="I248" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1907</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F249" t="s">
         <v>635</v>
@@ -10439,10 +10439,10 @@
         <v>1037</v>
       </c>
       <c r="I249" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1907</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F250" t="s">
         <v>636</v>
@@ -10465,10 +10465,10 @@
         <v>1081</v>
       </c>
       <c r="I250" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1907</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F251" t="s">
         <v>637</v>
@@ -10488,13 +10488,13 @@
         <v>831</v>
       </c>
       <c r="H251" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I251" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1907</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F252" t="s">
         <v>638</v>
@@ -10514,13 +10514,13 @@
         <v>943</v>
       </c>
       <c r="H252" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I252" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1907</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F253" t="s">
         <v>639</v>
@@ -10543,10 +10543,10 @@
         <v>1077</v>
       </c>
       <c r="I253" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1907</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F254" t="s">
         <v>640</v>
@@ -10566,13 +10566,13 @@
         <v>944</v>
       </c>
       <c r="H254" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I254" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1907</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F255" t="s">
         <v>641</v>
@@ -10595,10 +10595,10 @@
         <v>1082</v>
       </c>
       <c r="I255" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1907</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F256" t="s">
         <v>642</v>
@@ -10621,10 +10621,10 @@
         <v>1037</v>
       </c>
       <c r="I256" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1907</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F257" t="s">
         <v>643</v>
@@ -10647,10 +10647,10 @@
         <v>1037</v>
       </c>
       <c r="I257" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1907</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F258" t="s">
         <v>644</v>
@@ -10670,13 +10670,13 @@
         <v>947</v>
       </c>
       <c r="H258" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I258" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1907</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F259" t="s">
         <v>645</v>
@@ -10696,13 +10696,13 @@
         <v>948</v>
       </c>
       <c r="H259" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I259" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1907</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F260" t="s">
         <v>646</v>
@@ -10722,13 +10722,13 @@
         <v>949</v>
       </c>
       <c r="H260" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I260" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1907</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F261" t="s">
         <v>647</v>
@@ -10751,10 +10751,10 @@
         <v>1083</v>
       </c>
       <c r="I261" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1907</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F262" t="s">
         <v>648</v>
@@ -10780,10 +10780,10 @@
         <v>1083</v>
       </c>
       <c r="I262" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1907</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F263" t="s">
         <v>649</v>
@@ -10809,10 +10809,10 @@
         <v>1083</v>
       </c>
       <c r="I263" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1907</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F264" t="s">
         <v>650</v>
@@ -10835,10 +10835,10 @@
         <v>1083</v>
       </c>
       <c r="I264" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1907</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F265" t="s">
         <v>651</v>
@@ -10861,10 +10861,10 @@
         <v>1083</v>
       </c>
       <c r="I265" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1907</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F266" t="s">
         <v>652</v>
@@ -10887,10 +10887,10 @@
         <v>1084</v>
       </c>
       <c r="I266" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1907</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F267" t="s">
         <v>653</v>
@@ -10913,10 +10913,10 @@
         <v>1084</v>
       </c>
       <c r="I267" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1907</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F268" t="s">
         <v>654</v>
@@ -10939,10 +10939,10 @@
         <v>1084</v>
       </c>
       <c r="I268" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1907</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F269" t="s">
         <v>655</v>
@@ -10965,13 +10965,13 @@
         <v>1085</v>
       </c>
       <c r="I269" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J269" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1907</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F270" t="s">
         <v>656</v>
@@ -10994,13 +10994,13 @@
         <v>1085</v>
       </c>
       <c r="I270" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J270" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1907</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F271" t="s">
         <v>657</v>
@@ -11023,10 +11023,10 @@
         <v>1086</v>
       </c>
       <c r="I271" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1907</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F272" t="s">
         <v>658</v>
@@ -11049,10 +11049,10 @@
         <v>1087</v>
       </c>
       <c r="I272" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1907</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F273" t="s">
         <v>659</v>
@@ -11075,13 +11075,13 @@
         <v>1085</v>
       </c>
       <c r="I273" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J273" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1907</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F274" t="s">
         <v>660</v>
@@ -11104,10 +11104,10 @@
         <v>1087</v>
       </c>
       <c r="I274" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1907</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F275" t="s">
         <v>661</v>
@@ -11130,10 +11130,10 @@
         <v>1084</v>
       </c>
       <c r="I275" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1907</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F276" t="s">
         <v>662</v>
@@ -11156,10 +11156,10 @@
         <v>1084</v>
       </c>
       <c r="I276" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1907</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F277" t="s">
         <v>663</v>
@@ -11182,13 +11182,13 @@
         <v>1085</v>
       </c>
       <c r="I277" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J277" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1907</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F278" t="s">
         <v>664</v>
@@ -11211,10 +11211,10 @@
         <v>1088</v>
       </c>
       <c r="I278" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1907</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F279" t="s">
         <v>665</v>
@@ -11237,10 +11237,10 @@
         <v>1088</v>
       </c>
       <c r="I279" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1907</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F280" t="s">
         <v>666</v>
@@ -11263,10 +11263,10 @@
         <v>1089</v>
       </c>
       <c r="I280" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1907</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F281" t="s">
         <v>667</v>
@@ -11286,13 +11286,13 @@
         <v>958</v>
       </c>
       <c r="H281" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I281" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1907</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F282" t="s">
         <v>668</v>
@@ -11312,13 +11312,13 @@
         <v>959</v>
       </c>
       <c r="H282" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I282" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1907</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F283" t="s">
         <v>669</v>
@@ -11338,13 +11338,13 @@
         <v>960</v>
       </c>
       <c r="H283" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I283" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1907</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F284" t="s">
         <v>670</v>
@@ -11367,10 +11367,10 @@
         <v>1090</v>
       </c>
       <c r="I284" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1907</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F285" t="s">
         <v>671</v>
@@ -11393,10 +11393,10 @@
         <v>1091</v>
       </c>
       <c r="I285" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1907</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F286" t="s">
         <v>672</v>
@@ -11419,10 +11419,10 @@
         <v>1091</v>
       </c>
       <c r="I286" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1907</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F287" t="s">
         <v>673</v>
@@ -11445,10 +11445,10 @@
         <v>1090</v>
       </c>
       <c r="I287" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1907</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F288" t="s">
         <v>674</v>
@@ -11471,10 +11471,10 @@
         <v>1090</v>
       </c>
       <c r="I288" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1907</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F289" t="s">
         <v>675</v>
@@ -11497,10 +11497,10 @@
         <v>1123</v>
       </c>
       <c r="I289" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1907</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F290" t="s">
         <v>676</v>
@@ -11523,10 +11523,10 @@
         <v>1123</v>
       </c>
       <c r="I290" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1907</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F291" t="s">
         <v>677</v>
@@ -11549,10 +11549,10 @@
         <v>1124</v>
       </c>
       <c r="I291" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1907</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F292" t="s">
         <v>678</v>
@@ -11575,10 +11575,10 @@
         <v>1124</v>
       </c>
       <c r="I292" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1907</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F293" t="s">
         <v>679</v>
@@ -11604,10 +11604,10 @@
         <v>1124</v>
       </c>
       <c r="I293" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1907</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F294" t="s">
         <v>680</v>
@@ -11630,10 +11630,10 @@
         <v>1092</v>
       </c>
       <c r="I294" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1907</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F295" t="s">
         <v>681</v>
@@ -11653,13 +11653,13 @@
         <v>964</v>
       </c>
       <c r="H295" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I295" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1907</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F296" t="s">
         <v>682</v>
@@ -11679,13 +11679,13 @@
         <v>965</v>
       </c>
       <c r="H296" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I296" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1907</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F297" t="s">
         <v>683</v>
@@ -11708,10 +11708,10 @@
         <v>1091</v>
       </c>
       <c r="I297" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1907</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F298" t="s">
         <v>684</v>
@@ -11734,10 +11734,10 @@
         <v>1124</v>
       </c>
       <c r="I298" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1907</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F299" t="s">
         <v>685</v>
@@ -11760,10 +11760,10 @@
         <v>1092</v>
       </c>
       <c r="I299" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1907</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F300" t="s">
         <v>686</v>
@@ -11786,10 +11786,10 @@
         <v>1093</v>
       </c>
       <c r="I300" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1907</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F301" t="s">
         <v>687</v>
@@ -11812,10 +11812,10 @@
         <v>1094</v>
       </c>
       <c r="I301" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1907</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F302" t="s">
         <v>688</v>
@@ -11838,10 +11838,10 @@
         <v>1094</v>
       </c>
       <c r="I302" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1907</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F303" t="s">
         <v>689</v>
@@ -11864,10 +11864,10 @@
         <v>1093</v>
       </c>
       <c r="I303" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1907</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F304" t="s">
         <v>690</v>
@@ -11890,10 +11890,10 @@
         <v>1095</v>
       </c>
       <c r="I304" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1907</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F305" t="s">
         <v>691</v>
@@ -11916,13 +11916,13 @@
         <v>1096</v>
       </c>
       <c r="I305" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J305" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1907</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F306" t="s">
         <v>692</v>
@@ -11945,13 +11945,13 @@
         <v>1096</v>
       </c>
       <c r="I306" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J306" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1907</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F307" t="s">
         <v>693</v>
@@ -11974,13 +11974,13 @@
         <v>1096</v>
       </c>
       <c r="I307" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J307" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1907</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F308" t="s">
         <v>694</v>
@@ -12003,13 +12003,13 @@
         <v>1096</v>
       </c>
       <c r="I308" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J308" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1907</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F309" t="s">
         <v>695</v>
@@ -12032,13 +12032,13 @@
         <v>1096</v>
       </c>
       <c r="I309" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J309" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1907</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F310" t="s">
         <v>696</v>
@@ -12061,10 +12061,10 @@
         <v>1097</v>
       </c>
       <c r="I310" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1907</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F311" t="s">
         <v>697</v>
@@ -12087,10 +12087,10 @@
         <v>1097</v>
       </c>
       <c r="I311" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1907</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F312" t="s">
         <v>698</v>
@@ -12113,10 +12113,10 @@
         <v>1097</v>
       </c>
       <c r="I312" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1907</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F313" t="s">
         <v>699</v>
@@ -12139,10 +12139,10 @@
         <v>1098</v>
       </c>
       <c r="I313" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1907</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F314" t="s">
         <v>700</v>
@@ -12165,10 +12165,10 @@
         <v>1098</v>
       </c>
       <c r="I314" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1907</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F315" t="s">
         <v>701</v>
@@ -12191,10 +12191,10 @@
         <v>1098</v>
       </c>
       <c r="I315" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1907</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F316" t="s">
         <v>702</v>
@@ -12217,10 +12217,10 @@
         <v>1099</v>
       </c>
       <c r="I316" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1907</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F317" t="s">
         <v>703</v>
@@ -12243,10 +12243,10 @@
         <v>1099</v>
       </c>
       <c r="I317" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1907</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F318" t="s">
         <v>704</v>
@@ -12269,10 +12269,10 @@
         <v>1099</v>
       </c>
       <c r="I318" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1907</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F319" t="s">
         <v>705</v>
@@ -12295,10 +12295,10 @@
         <v>1100</v>
       </c>
       <c r="I319" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1907</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F320" t="s">
         <v>706</v>
@@ -12321,10 +12321,10 @@
         <v>1100</v>
       </c>
       <c r="I320" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1907</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F321" t="s">
         <v>707</v>
@@ -12347,10 +12347,10 @@
         <v>1100</v>
       </c>
       <c r="I321" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1907</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F322" t="s">
         <v>708</v>
@@ -12373,10 +12373,10 @@
         <v>1100</v>
       </c>
       <c r="I322" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1907</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F323" t="s">
         <v>709</v>
@@ -12399,10 +12399,10 @@
         <v>1101</v>
       </c>
       <c r="I323" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1907</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F324" t="s">
         <v>710</v>
@@ -12425,10 +12425,10 @@
         <v>1101</v>
       </c>
       <c r="I324" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1907</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F325" t="s">
         <v>711</v>
@@ -12451,10 +12451,10 @@
         <v>1101</v>
       </c>
       <c r="I325" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1907</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F326" t="s">
         <v>712</v>
@@ -12477,10 +12477,10 @@
         <v>1102</v>
       </c>
       <c r="I326" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1907</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F327" t="s">
         <v>713</v>
@@ -12503,10 +12503,10 @@
         <v>1103</v>
       </c>
       <c r="I327" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1907</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F328" t="s">
         <v>714</v>
@@ -12529,10 +12529,10 @@
         <v>1103</v>
       </c>
       <c r="I328" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1907</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F329" t="s">
         <v>715</v>
@@ -12555,10 +12555,10 @@
         <v>1103</v>
       </c>
       <c r="I329" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1907</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F330" t="s">
         <v>716</v>
@@ -12581,10 +12581,10 @@
         <v>1103</v>
       </c>
       <c r="I330" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1907</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F331" t="s">
         <v>717</v>
@@ -12607,10 +12607,10 @@
         <v>1103</v>
       </c>
       <c r="I331" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1907</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F332" t="s">
         <v>718</v>
@@ -12633,10 +12633,10 @@
         <v>1103</v>
       </c>
       <c r="I332" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1907</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F333" t="s">
         <v>719</v>
@@ -12659,10 +12659,10 @@
         <v>1103</v>
       </c>
       <c r="I333" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1907</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F334" t="s">
         <v>720</v>
@@ -12685,10 +12685,10 @@
         <v>1104</v>
       </c>
       <c r="I334" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1907</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F335" t="s">
         <v>721</v>
@@ -12711,10 +12711,10 @@
         <v>1104</v>
       </c>
       <c r="I335" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1907</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F336" t="s">
         <v>722</v>
@@ -12737,10 +12737,10 @@
         <v>1104</v>
       </c>
       <c r="I336" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1907</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F337" t="s">
         <v>723</v>
@@ -12763,10 +12763,10 @@
         <v>1104</v>
       </c>
       <c r="I337" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1907</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F338" t="s">
         <v>724</v>
@@ -12789,10 +12789,10 @@
         <v>1104</v>
       </c>
       <c r="I338" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1907</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F339" t="s">
         <v>725</v>
@@ -12815,10 +12815,10 @@
         <v>1104</v>
       </c>
       <c r="I339" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1907</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F340" t="s">
         <v>726</v>
@@ -12841,10 +12841,10 @@
         <v>1104</v>
       </c>
       <c r="I340" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1907</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F341" t="s">
         <v>727</v>
@@ -12867,10 +12867,10 @@
         <v>1104</v>
       </c>
       <c r="I341" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1907</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F342" t="s">
         <v>728</v>
@@ -12893,10 +12893,10 @@
         <v>1105</v>
       </c>
       <c r="I342" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1907</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F343" t="s">
         <v>729</v>
@@ -12919,10 +12919,10 @@
         <v>1105</v>
       </c>
       <c r="I343" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1907</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F344" t="s">
         <v>730</v>
@@ -12945,10 +12945,10 @@
         <v>1105</v>
       </c>
       <c r="I344" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1907</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F345" t="s">
         <v>731</v>
@@ -12971,10 +12971,10 @@
         <v>1106</v>
       </c>
       <c r="I345" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1907</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F346" t="s">
         <v>732</v>
@@ -13000,10 +13000,10 @@
         <v>1107</v>
       </c>
       <c r="I346" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1907</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F347" t="s">
         <v>733</v>
@@ -13029,10 +13029,10 @@
         <v>1107</v>
       </c>
       <c r="I347" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1907</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F348" t="s">
         <v>734</v>
@@ -13058,10 +13058,10 @@
         <v>1107</v>
       </c>
       <c r="I348" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1907</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F349" t="s">
         <v>735</v>
@@ -13087,10 +13087,10 @@
         <v>1107</v>
       </c>
       <c r="I349" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1907</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F350" t="s">
         <v>736</v>
@@ -13113,13 +13113,13 @@
         <v>999</v>
       </c>
       <c r="H350" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I350" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1907</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F351" t="s">
         <v>737</v>
@@ -13142,13 +13142,13 @@
         <v>930</v>
       </c>
       <c r="H351" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I351" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1907</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F352" t="s">
         <v>738</v>
@@ -13171,13 +13171,13 @@
         <v>1000</v>
       </c>
       <c r="H352" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I352" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1907</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F353" t="s">
         <v>739</v>
@@ -13200,10 +13200,10 @@
         <v>1131</v>
       </c>
       <c r="I353" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1907</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F354" t="s">
         <v>740</v>
@@ -13226,10 +13226,10 @@
         <v>1131</v>
       </c>
       <c r="I354" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1907</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F355" t="s">
         <v>741</v>
@@ -13252,10 +13252,10 @@
         <v>1108</v>
       </c>
       <c r="I355" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1907</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F356" t="s">
         <v>742</v>
@@ -13278,10 +13278,10 @@
         <v>1108</v>
       </c>
       <c r="I356" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1907</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F357" t="s">
         <v>743</v>
@@ -13304,10 +13304,10 @@
         <v>1108</v>
       </c>
       <c r="I357" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1907</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F358" t="s">
         <v>744</v>
@@ -13330,10 +13330,10 @@
         <v>1108</v>
       </c>
       <c r="I358" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1907</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F359" t="s">
         <v>745</v>
@@ -13356,10 +13356,10 @@
         <v>1108</v>
       </c>
       <c r="I359" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1907</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F360" t="s">
         <v>746</v>
@@ -13382,22 +13382,22 @@
         <v>1108</v>
       </c>
       <c r="I360" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K360" t="s">
         <v>1132</v>
       </c>
       <c r="L360" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="M360" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N360" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1907</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F361" t="s">
         <v>747</v>
@@ -13417,13 +13417,13 @@
         <v>996</v>
       </c>
       <c r="H361" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I361" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1907</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F362" t="s">
         <v>748</v>
@@ -13443,13 +13443,13 @@
         <v>1003</v>
       </c>
       <c r="H362" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I362" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1907</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F363" t="s">
         <v>749</v>
@@ -13469,13 +13469,13 @@
         <v>1004</v>
       </c>
       <c r="H363" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I363" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1907</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F364" t="s">
         <v>750</v>
@@ -13495,13 +13495,13 @@
         <v>1005</v>
       </c>
       <c r="H364" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I364" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1907</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F365" t="s">
         <v>751</v>
@@ -13521,13 +13521,13 @@
         <v>1006</v>
       </c>
       <c r="H365" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I365" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1907</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F366" t="s">
         <v>752</v>
@@ -13547,13 +13547,13 @@
         <v>1007</v>
       </c>
       <c r="H366" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I366" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1907</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F367" t="s">
         <v>753</v>
@@ -13573,13 +13573,13 @@
         <v>1008</v>
       </c>
       <c r="H367" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I367" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1907</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F368" t="s">
         <v>754</v>
@@ -13599,13 +13599,13 @@
         <v>979</v>
       </c>
       <c r="H368" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I368" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1907</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F369" t="s">
         <v>755</v>
@@ -13628,10 +13628,10 @@
         <v>1109</v>
       </c>
       <c r="I369" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1907</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F370" t="s">
         <v>756</v>
@@ -13654,10 +13654,10 @@
         <v>1109</v>
       </c>
       <c r="I370" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1907</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F371" t="s">
         <v>757</v>
@@ -13680,10 +13680,10 @@
         <v>1109</v>
       </c>
       <c r="I371" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1907</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F372" t="s">
         <v>758</v>
@@ -13706,10 +13706,10 @@
         <v>1109</v>
       </c>
       <c r="I372" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1907</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F373" t="s">
         <v>759</v>
@@ -13732,10 +13732,10 @@
         <v>1109</v>
       </c>
       <c r="I373" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1907</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F374" t="s">
         <v>760</v>
@@ -13758,10 +13758,10 @@
         <v>1110</v>
       </c>
       <c r="I374" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1907</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F375" t="s">
         <v>761</v>
@@ -13784,10 +13784,10 @@
         <v>1111</v>
       </c>
       <c r="I375" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1907</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F376" t="s">
         <v>762</v>
@@ -13810,16 +13810,16 @@
         <v>1111</v>
       </c>
       <c r="I376" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K376" t="s">
         <v>1112</v>
       </c>
       <c r="L376" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1907</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F377" t="s">
         <v>763</v>
@@ -13842,10 +13842,10 @@
         <v>1112</v>
       </c>
       <c r="I377" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1907</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>379</v>
       </c>
       <c r="E378" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F378" t="s">
         <v>764</v>
@@ -13868,10 +13868,10 @@
         <v>1112</v>
       </c>
       <c r="I378" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1907</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>380</v>
       </c>
       <c r="E379" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F379" t="s">
         <v>765</v>
@@ -13894,10 +13894,10 @@
         <v>1113</v>
       </c>
       <c r="I379" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1907</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>381</v>
       </c>
       <c r="E380" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F380" t="s">
         <v>766</v>
@@ -13920,10 +13920,10 @@
         <v>1113</v>
       </c>
       <c r="I380" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1907</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>382</v>
       </c>
       <c r="E381" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F381" t="s">
         <v>767</v>
@@ -13946,10 +13946,10 @@
         <v>1114</v>
       </c>
       <c r="I381" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1907</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>383</v>
       </c>
       <c r="E382" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F382" t="s">
         <v>768</v>
@@ -13972,10 +13972,10 @@
         <v>1115</v>
       </c>
       <c r="I382" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1907</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>384</v>
       </c>
       <c r="E383" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F383" t="s">
         <v>769</v>
@@ -13998,10 +13998,10 @@
         <v>1052</v>
       </c>
       <c r="I383" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1907</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>385</v>
       </c>
       <c r="E384" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F384" t="s">
         <v>770</v>
@@ -14024,10 +14024,10 @@
         <v>1052</v>
       </c>
       <c r="I384" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1907</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>386</v>
       </c>
       <c r="E385" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F385" t="s">
         <v>771</v>
@@ -14050,10 +14050,10 @@
         <v>1052</v>
       </c>
       <c r="I385" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1907</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>387</v>
       </c>
       <c r="E386" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F386" t="s">
         <v>772</v>
@@ -14076,10 +14076,10 @@
         <v>1052</v>
       </c>
       <c r="I386" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1907</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>388</v>
       </c>
       <c r="E387" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F387" t="s">
         <v>773</v>
@@ -14102,7 +14102,7 @@
         <v>1052</v>
       </c>
       <c r="I387" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1907_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1907_Winter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C96E921-EB83-440D-A524-5CE623EEF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EDD1AA-3C90-42AA-99A8-43F787DCBC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="1172">
   <si>
     <t>Winter</t>
   </si>
@@ -3184,9 +3184,6 @@
     <t>oswald_a</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3361,24 +3358,12 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>jordan_h</t>
   </si>
   <si>
     <t>bretscher_k</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3400,9 +3385,6 @@
     <t>hitzigsteiner_h</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3436,9 +3418,6 @@
     <t>huber_m</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>schmidt_mb</t>
   </si>
   <si>
@@ -3533,6 +3512,30 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>schinz_m</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3572,7 +3575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3876,11 +3879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
@@ -3901,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F1" t="s">
         <v>389</v>
@@ -3913,7 +3916,7 @@
         <v>1020</v>
       </c>
       <c r="I1" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3927,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F2" t="s">
         <v>390</v>
@@ -3939,7 +3942,7 @@
         <v>1021</v>
       </c>
       <c r="I2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3953,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F3" t="s">
         <v>391</v>
@@ -3962,10 +3965,10 @@
         <v>776</v>
       </c>
       <c r="H3" t="s">
-        <v>1116</v>
+        <v>1167</v>
       </c>
       <c r="I3" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3979,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F4" t="s">
         <v>392</v>
@@ -3991,7 +3994,7 @@
         <v>1023</v>
       </c>
       <c r="I4" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4005,7 +4008,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F5" t="s">
         <v>393</v>
@@ -4017,7 +4020,7 @@
         <v>1023</v>
       </c>
       <c r="I5" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4031,7 +4034,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F6" t="s">
         <v>394</v>
@@ -4043,7 +4046,7 @@
         <v>1020</v>
       </c>
       <c r="I6" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4057,7 +4060,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F7" t="s">
         <v>395</v>
@@ -4069,7 +4072,7 @@
         <v>1024</v>
       </c>
       <c r="I7" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4083,7 +4086,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F8" t="s">
         <v>396</v>
@@ -4095,7 +4098,7 @@
         <v>1024</v>
       </c>
       <c r="I8" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4109,7 +4112,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F9" t="s">
         <v>397</v>
@@ -4118,10 +4121,10 @@
         <v>782</v>
       </c>
       <c r="H9" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="I9" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4135,7 +4138,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F10" t="s">
         <v>398</v>
@@ -4147,7 +4150,7 @@
         <v>1020</v>
       </c>
       <c r="I10" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4161,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F11" t="s">
         <v>399</v>
@@ -4170,13 +4173,13 @@
         <v>784</v>
       </c>
       <c r="H11" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="I11" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J11" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4190,7 +4193,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F12" t="s">
         <v>400</v>
@@ -4199,13 +4202,13 @@
         <v>785</v>
       </c>
       <c r="H12" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="I12" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J12" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4219,7 +4222,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F13" t="s">
         <v>401</v>
@@ -4228,13 +4231,13 @@
         <v>786</v>
       </c>
       <c r="H13" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="I13" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J13" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4248,7 +4251,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F14" t="s">
         <v>402</v>
@@ -4260,7 +4263,7 @@
         <v>1026</v>
       </c>
       <c r="I14" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4274,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F15" t="s">
         <v>403</v>
@@ -4286,7 +4289,7 @@
         <v>1026</v>
       </c>
       <c r="I15" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4300,7 +4303,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F16" t="s">
         <v>404</v>
@@ -4309,10 +4312,10 @@
         <v>789</v>
       </c>
       <c r="H16" t="s">
-        <v>1116</v>
+        <v>1167</v>
       </c>
       <c r="I16" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4326,7 +4329,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F17" t="s">
         <v>405</v>
@@ -4335,10 +4338,10 @@
         <v>781</v>
       </c>
       <c r="H17" t="s">
-        <v>1116</v>
+        <v>1167</v>
       </c>
       <c r="I17" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4352,7 +4355,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F18" t="s">
         <v>406</v>
@@ -4361,10 +4364,10 @@
         <v>790</v>
       </c>
       <c r="H18" t="s">
-        <v>1116</v>
+        <v>1167</v>
       </c>
       <c r="I18" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4378,7 +4381,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F19" t="s">
         <v>407</v>
@@ -4387,10 +4390,10 @@
         <v>791</v>
       </c>
       <c r="H19" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="I19" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4404,7 +4407,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F20" t="s">
         <v>408</v>
@@ -4413,10 +4416,10 @@
         <v>792</v>
       </c>
       <c r="H20" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="I20" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4430,7 +4433,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F21" t="s">
         <v>409</v>
@@ -4442,7 +4445,7 @@
         <v>1023</v>
       </c>
       <c r="I21" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4456,7 +4459,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F22" t="s">
         <v>410</v>
@@ -4465,10 +4468,10 @@
         <v>794</v>
       </c>
       <c r="H22" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="I22" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4482,7 +4485,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F23" t="s">
         <v>411</v>
@@ -4494,7 +4497,7 @@
         <v>1020</v>
       </c>
       <c r="I23" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4508,7 +4511,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F24" t="s">
         <v>412</v>
@@ -4517,13 +4520,13 @@
         <v>796</v>
       </c>
       <c r="H24" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="I24" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J24" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4537,7 +4540,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F25" t="s">
         <v>413</v>
@@ -4549,7 +4552,7 @@
         <v>1026</v>
       </c>
       <c r="I25" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4563,7 +4566,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F26" t="s">
         <v>414</v>
@@ -4575,7 +4578,7 @@
         <v>1026</v>
       </c>
       <c r="I26" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4589,7 +4592,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F27" t="s">
         <v>415</v>
@@ -4598,10 +4601,10 @@
         <v>774</v>
       </c>
       <c r="H27" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="I27" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4615,7 +4618,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F28" t="s">
         <v>416</v>
@@ -4627,7 +4630,7 @@
         <v>1027</v>
       </c>
       <c r="I28" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4641,7 +4644,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F29" t="s">
         <v>417</v>
@@ -4650,10 +4653,10 @@
         <v>800</v>
       </c>
       <c r="H29" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="I29" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4667,7 +4670,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F30" t="s">
         <v>418</v>
@@ -4676,10 +4679,10 @@
         <v>801</v>
       </c>
       <c r="H30" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="I30" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4693,7 +4696,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F31" t="s">
         <v>419</v>
@@ -4702,10 +4705,10 @@
         <v>802</v>
       </c>
       <c r="H31" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="I31" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4719,7 +4722,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F32" t="s">
         <v>420</v>
@@ -4728,10 +4731,10 @@
         <v>803</v>
       </c>
       <c r="H32" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="I32" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4745,7 +4748,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F33" t="s">
         <v>421</v>
@@ -4757,7 +4760,7 @@
         <v>1028</v>
       </c>
       <c r="I33" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4771,7 +4774,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F34" t="s">
         <v>422</v>
@@ -4783,7 +4786,7 @@
         <v>1028</v>
       </c>
       <c r="I34" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4797,7 +4800,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F35" t="s">
         <v>423</v>
@@ -4809,7 +4812,7 @@
         <v>1029</v>
       </c>
       <c r="I35" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4823,7 +4826,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F36" t="s">
         <v>424</v>
@@ -4835,7 +4838,7 @@
         <v>1030</v>
       </c>
       <c r="I36" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4849,7 +4852,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F37" t="s">
         <v>425</v>
@@ -4861,7 +4864,7 @@
         <v>1029</v>
       </c>
       <c r="I37" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4875,7 +4878,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F38" t="s">
         <v>426</v>
@@ -4887,7 +4890,7 @@
         <v>1029</v>
       </c>
       <c r="I38" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4901,7 +4904,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F39" t="s">
         <v>427</v>
@@ -4910,10 +4913,10 @@
         <v>810</v>
       </c>
       <c r="H39" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="I39" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4927,7 +4930,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F40" t="s">
         <v>428</v>
@@ -4939,7 +4942,7 @@
         <v>1031</v>
       </c>
       <c r="I40" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4953,7 +4956,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F41" t="s">
         <v>429</v>
@@ -4965,7 +4968,7 @@
         <v>1032</v>
       </c>
       <c r="I41" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4979,7 +4982,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F42" t="s">
         <v>430</v>
@@ -4991,7 +4994,7 @@
         <v>1027</v>
       </c>
       <c r="I42" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5005,7 +5008,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F43" t="s">
         <v>431</v>
@@ -5017,7 +5020,7 @@
         <v>1027</v>
       </c>
       <c r="I43" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5031,7 +5034,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F44" t="s">
         <v>432</v>
@@ -5043,7 +5046,7 @@
         <v>1032</v>
       </c>
       <c r="I44" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5057,7 +5060,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F45" t="s">
         <v>433</v>
@@ -5069,7 +5072,7 @@
         <v>1032</v>
       </c>
       <c r="I45" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5083,7 +5086,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F46" t="s">
         <v>434</v>
@@ -5092,13 +5095,13 @@
         <v>816</v>
       </c>
       <c r="H46" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="I46" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="J46" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5112,7 +5115,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F47" t="s">
         <v>435</v>
@@ -5124,7 +5127,7 @@
         <v>1033</v>
       </c>
       <c r="I47" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5138,7 +5141,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F48" t="s">
         <v>436</v>
@@ -5150,7 +5153,7 @@
         <v>1033</v>
       </c>
       <c r="I48" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5164,7 +5167,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F49" t="s">
         <v>437</v>
@@ -5173,13 +5176,13 @@
         <v>819</v>
       </c>
       <c r="H49" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="I49" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="J49" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5193,7 +5196,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F50" t="s">
         <v>438</v>
@@ -5202,13 +5205,13 @@
         <v>820</v>
       </c>
       <c r="H50" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="I50" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="J50" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5222,7 +5225,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F51" t="s">
         <v>439</v>
@@ -5234,7 +5237,7 @@
         <v>1034</v>
       </c>
       <c r="I51" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5248,7 +5251,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F52" t="s">
         <v>440</v>
@@ -5260,7 +5263,7 @@
         <v>1035</v>
       </c>
       <c r="I52" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5274,7 +5277,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F53" t="s">
         <v>441</v>
@@ -5286,7 +5289,7 @@
         <v>1035</v>
       </c>
       <c r="I53" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5300,7 +5303,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F54" t="s">
         <v>442</v>
@@ -5312,7 +5315,7 @@
         <v>1036</v>
       </c>
       <c r="I54" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5326,7 +5329,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F55" t="s">
         <v>443</v>
@@ -5338,7 +5341,7 @@
         <v>1036</v>
       </c>
       <c r="I55" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5352,7 +5355,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F56" t="s">
         <v>444</v>
@@ -5364,7 +5367,7 @@
         <v>1036</v>
       </c>
       <c r="I56" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5378,7 +5381,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F57" t="s">
         <v>445</v>
@@ -5387,10 +5390,10 @@
         <v>827</v>
       </c>
       <c r="H57" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="I57" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5404,7 +5407,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F58" t="s">
         <v>446</v>
@@ -5416,7 +5419,7 @@
         <v>1038</v>
       </c>
       <c r="I58" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5430,7 +5433,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F59" t="s">
         <v>447</v>
@@ -5439,10 +5442,10 @@
         <v>829</v>
       </c>
       <c r="H59" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="I59" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5456,7 +5459,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F60" t="s">
         <v>448</v>
@@ -5468,7 +5471,7 @@
         <v>1027</v>
       </c>
       <c r="I60" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5482,7 +5485,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F61" t="s">
         <v>449</v>
@@ -5491,10 +5494,10 @@
         <v>831</v>
       </c>
       <c r="H61" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="I61" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5508,7 +5511,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F62" t="s">
         <v>450</v>
@@ -5517,10 +5520,10 @@
         <v>832</v>
       </c>
       <c r="H62" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="I62" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5534,7 +5537,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F63" t="s">
         <v>451</v>
@@ -5546,7 +5549,7 @@
         <v>1028</v>
       </c>
       <c r="I63" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5560,7 +5563,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F64" t="s">
         <v>452</v>
@@ -5569,10 +5572,10 @@
         <v>834</v>
       </c>
       <c r="H64" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="I64" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5586,7 +5589,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F65" t="s">
         <v>453</v>
@@ -5598,7 +5601,7 @@
         <v>1027</v>
       </c>
       <c r="I65" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5612,7 +5615,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F66" t="s">
         <v>454</v>
@@ -5624,7 +5627,7 @@
         <v>1032</v>
       </c>
       <c r="I66" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5638,7 +5641,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F67" t="s">
         <v>455</v>
@@ -5650,7 +5653,7 @@
         <v>1033</v>
       </c>
       <c r="I67" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5664,7 +5667,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F68" t="s">
         <v>456</v>
@@ -5676,7 +5679,7 @@
         <v>1034</v>
       </c>
       <c r="I68" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5690,7 +5693,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F69" t="s">
         <v>457</v>
@@ -5702,7 +5705,7 @@
         <v>1035</v>
       </c>
       <c r="I69" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5716,7 +5719,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F70" t="s">
         <v>458</v>
@@ -5728,7 +5731,7 @@
         <v>1036</v>
       </c>
       <c r="I70" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5742,7 +5745,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F71" t="s">
         <v>459</v>
@@ -5751,10 +5754,10 @@
         <v>840</v>
       </c>
       <c r="H71" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="I71" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5768,7 +5771,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F72" t="s">
         <v>460</v>
@@ -5777,10 +5780,10 @@
         <v>841</v>
       </c>
       <c r="H72" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="I72" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5794,7 +5797,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F73" t="s">
         <v>461</v>
@@ -5803,10 +5806,10 @@
         <v>842</v>
       </c>
       <c r="H73" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="I73" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -5820,7 +5823,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F74" t="s">
         <v>462</v>
@@ -5829,10 +5832,10 @@
         <v>843</v>
       </c>
       <c r="H74" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="I74" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -5846,7 +5849,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F75" t="s">
         <v>463</v>
@@ -5858,13 +5861,13 @@
         <v>1041</v>
       </c>
       <c r="I75" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="K75" t="s">
         <v>1040</v>
       </c>
       <c r="L75" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5878,7 +5881,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F76" t="s">
         <v>464</v>
@@ -5890,7 +5893,7 @@
         <v>1041</v>
       </c>
       <c r="I76" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5904,7 +5907,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F77" t="s">
         <v>465</v>
@@ -5916,7 +5919,7 @@
         <v>1041</v>
       </c>
       <c r="I77" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5930,7 +5933,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F78" t="s">
         <v>466</v>
@@ -5942,7 +5945,7 @@
         <v>1040</v>
       </c>
       <c r="I78" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5956,7 +5959,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F79" t="s">
         <v>467</v>
@@ -5968,7 +5971,7 @@
         <v>1040</v>
       </c>
       <c r="I79" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5982,7 +5985,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F80" t="s">
         <v>468</v>
@@ -5994,7 +5997,7 @@
         <v>1042</v>
       </c>
       <c r="I80" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6008,7 +6011,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F81" t="s">
         <v>469</v>
@@ -6020,7 +6023,7 @@
         <v>1043</v>
       </c>
       <c r="I81" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6034,7 +6037,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F82" t="s">
         <v>470</v>
@@ -6046,7 +6049,7 @@
         <v>1043</v>
       </c>
       <c r="I82" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6060,7 +6063,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F83" t="s">
         <v>471</v>
@@ -6069,10 +6072,10 @@
         <v>850</v>
       </c>
       <c r="H83" t="s">
-        <v>1117</v>
+        <v>1166</v>
       </c>
       <c r="I83" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -6086,7 +6089,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F84" t="s">
         <v>472</v>
@@ -6095,10 +6098,10 @@
         <v>851</v>
       </c>
       <c r="H84" t="s">
-        <v>1117</v>
+        <v>1166</v>
       </c>
       <c r="I84" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -6112,7 +6115,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F85" t="s">
         <v>473</v>
@@ -6124,7 +6127,7 @@
         <v>1044</v>
       </c>
       <c r="I85" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -6138,7 +6141,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F86" t="s">
         <v>474</v>
@@ -6150,7 +6153,7 @@
         <v>1044</v>
       </c>
       <c r="I86" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6164,7 +6167,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F87" t="s">
         <v>475</v>
@@ -6176,7 +6179,7 @@
         <v>1044</v>
       </c>
       <c r="I87" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6190,7 +6193,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F88" t="s">
         <v>476</v>
@@ -6202,7 +6205,7 @@
         <v>1044</v>
       </c>
       <c r="I88" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -6216,7 +6219,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F89" t="s">
         <v>477</v>
@@ -6228,7 +6231,7 @@
         <v>1045</v>
       </c>
       <c r="I89" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6242,7 +6245,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F90" t="s">
         <v>478</v>
@@ -6254,7 +6257,7 @@
         <v>1045</v>
       </c>
       <c r="I90" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6268,7 +6271,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F91" t="s">
         <v>479</v>
@@ -6280,7 +6283,7 @@
         <v>1045</v>
       </c>
       <c r="I91" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6294,7 +6297,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F92" t="s">
         <v>480</v>
@@ -6303,13 +6306,13 @@
         <v>856</v>
       </c>
       <c r="H92" t="s">
-        <v>1138</v>
+        <v>1168</v>
       </c>
       <c r="I92" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J92" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6323,7 +6326,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F93" t="s">
         <v>481</v>
@@ -6332,13 +6335,13 @@
         <v>857</v>
       </c>
       <c r="H93" t="s">
-        <v>1138</v>
+        <v>1168</v>
       </c>
       <c r="I93" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J93" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6352,7 +6355,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F94" t="s">
         <v>482</v>
@@ -6361,10 +6364,10 @@
         <v>781</v>
       </c>
       <c r="H94" t="s">
-        <v>1118</v>
+        <v>1171</v>
       </c>
       <c r="I94" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6378,7 +6381,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F95" t="s">
         <v>483</v>
@@ -6387,10 +6390,10 @@
         <v>858</v>
       </c>
       <c r="H95" t="s">
-        <v>1118</v>
+        <v>1171</v>
       </c>
       <c r="I95" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6404,7 +6407,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F96" t="s">
         <v>484</v>
@@ -6413,10 +6416,10 @@
         <v>780</v>
       </c>
       <c r="H96" t="s">
-        <v>1118</v>
+        <v>1171</v>
       </c>
       <c r="I96" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -6430,7 +6433,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F97" t="s">
         <v>485</v>
@@ -6439,10 +6442,10 @@
         <v>859</v>
       </c>
       <c r="H97" t="s">
-        <v>1118</v>
+        <v>1171</v>
       </c>
       <c r="I97" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -6456,7 +6459,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F98" t="s">
         <v>486</v>
@@ -6468,7 +6471,7 @@
         <v>1046</v>
       </c>
       <c r="I98" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -6482,7 +6485,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F99" t="s">
         <v>487</v>
@@ -6491,10 +6494,10 @@
         <v>861</v>
       </c>
       <c r="H99" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I99" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -6508,7 +6511,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F100" t="s">
         <v>488</v>
@@ -6517,10 +6520,10 @@
         <v>862</v>
       </c>
       <c r="H100" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I100" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -6534,7 +6537,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F101" t="s">
         <v>489</v>
@@ -6543,10 +6546,10 @@
         <v>863</v>
       </c>
       <c r="H101" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I101" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -6560,7 +6563,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F102" t="s">
         <v>490</v>
@@ -6569,10 +6572,10 @@
         <v>825</v>
       </c>
       <c r="H102" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I102" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -6586,7 +6589,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F103" t="s">
         <v>465</v>
@@ -6595,10 +6598,10 @@
         <v>846</v>
       </c>
       <c r="H103" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="I103" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -6612,7 +6615,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F104" t="s">
         <v>491</v>
@@ -6621,10 +6624,10 @@
         <v>864</v>
       </c>
       <c r="H104" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="I104" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -6638,7 +6641,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F105" t="s">
         <v>492</v>
@@ -6647,10 +6650,10 @@
         <v>859</v>
       </c>
       <c r="H105" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="I105" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6664,7 +6667,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F106" t="s">
         <v>493</v>
@@ -6676,7 +6679,7 @@
         <v>1047</v>
       </c>
       <c r="I106" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -6690,7 +6693,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F107" t="s">
         <v>494</v>
@@ -6702,7 +6705,7 @@
         <v>1047</v>
       </c>
       <c r="I107" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -6716,7 +6719,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F108" t="s">
         <v>495</v>
@@ -6728,7 +6731,7 @@
         <v>1047</v>
       </c>
       <c r="I108" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -6742,7 +6745,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F109" t="s">
         <v>496</v>
@@ -6754,7 +6757,7 @@
         <v>1047</v>
       </c>
       <c r="I109" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -6768,7 +6771,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F110" t="s">
         <v>497</v>
@@ -6780,7 +6783,7 @@
         <v>1048</v>
       </c>
       <c r="I110" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -6794,7 +6797,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F111" t="s">
         <v>498</v>
@@ -6806,7 +6809,7 @@
         <v>1048</v>
       </c>
       <c r="I111" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -6820,7 +6823,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F112" t="s">
         <v>499</v>
@@ -6829,10 +6832,10 @@
         <v>868</v>
       </c>
       <c r="H112" t="s">
-        <v>1117</v>
+        <v>1166</v>
       </c>
       <c r="I112" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6846,7 +6849,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F113" t="s">
         <v>500</v>
@@ -6855,10 +6858,10 @@
         <v>869</v>
       </c>
       <c r="H113" t="s">
-        <v>1117</v>
+        <v>1166</v>
       </c>
       <c r="I113" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -6872,7 +6875,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F114" t="s">
         <v>501</v>
@@ -6884,7 +6887,7 @@
         <v>1049</v>
       </c>
       <c r="I114" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6898,7 +6901,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F115" t="s">
         <v>502</v>
@@ -6910,7 +6913,7 @@
         <v>1049</v>
       </c>
       <c r="I115" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6924,7 +6927,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F116" t="s">
         <v>503</v>
@@ -6936,7 +6939,7 @@
         <v>1049</v>
       </c>
       <c r="I116" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6950,7 +6953,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F117" t="s">
         <v>504</v>
@@ -6962,7 +6965,7 @@
         <v>1039</v>
       </c>
       <c r="I117" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6976,7 +6979,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F118" t="s">
         <v>505</v>
@@ -6988,7 +6991,7 @@
         <v>1039</v>
       </c>
       <c r="I118" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7002,7 +7005,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F119" t="s">
         <v>506</v>
@@ -7014,7 +7017,7 @@
         <v>1050</v>
       </c>
       <c r="I119" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7028,7 +7031,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F120" t="s">
         <v>507</v>
@@ -7040,7 +7043,7 @@
         <v>1050</v>
       </c>
       <c r="I120" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7054,7 +7057,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F121" t="s">
         <v>508</v>
@@ -7063,10 +7066,10 @@
         <v>781</v>
       </c>
       <c r="H121" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="I121" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7080,7 +7083,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F122" t="s">
         <v>509</v>
@@ -7089,10 +7092,10 @@
         <v>874</v>
       </c>
       <c r="H122" t="s">
-        <v>1138</v>
+        <v>1168</v>
       </c>
       <c r="I122" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7106,7 +7109,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F123" t="s">
         <v>510</v>
@@ -7115,10 +7118,10 @@
         <v>781</v>
       </c>
       <c r="H123" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="I123" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7132,7 +7135,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F124" t="s">
         <v>511</v>
@@ -7141,10 +7144,10 @@
         <v>875</v>
       </c>
       <c r="H124" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="I124" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7158,7 +7161,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F125" t="s">
         <v>512</v>
@@ -7167,10 +7170,10 @@
         <v>788</v>
       </c>
       <c r="H125" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="I125" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7184,7 +7187,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F126" t="s">
         <v>513</v>
@@ -7196,7 +7199,7 @@
         <v>1051</v>
       </c>
       <c r="I126" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7210,7 +7213,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F127" t="s">
         <v>514</v>
@@ -7222,7 +7225,7 @@
         <v>1051</v>
       </c>
       <c r="I127" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7236,7 +7239,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F128" t="s">
         <v>515</v>
@@ -7248,7 +7251,7 @@
         <v>1051</v>
       </c>
       <c r="I128" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -7262,7 +7265,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F129" t="s">
         <v>515</v>
@@ -7274,7 +7277,7 @@
         <v>1051</v>
       </c>
       <c r="I129" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -7288,7 +7291,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F130" t="s">
         <v>516</v>
@@ -7300,7 +7303,7 @@
         <v>1051</v>
       </c>
       <c r="I130" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -7314,7 +7317,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F131" t="s">
         <v>517</v>
@@ -7323,10 +7326,10 @@
         <v>788</v>
       </c>
       <c r="H131" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I131" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -7340,7 +7343,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F132" t="s">
         <v>518</v>
@@ -7349,10 +7352,10 @@
         <v>781</v>
       </c>
       <c r="H132" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="I132" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -7366,7 +7369,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F133" t="s">
         <v>519</v>
@@ -7378,7 +7381,7 @@
         <v>1053</v>
       </c>
       <c r="I133" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -7392,7 +7395,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F134" t="s">
         <v>520</v>
@@ -7404,7 +7407,7 @@
         <v>1053</v>
       </c>
       <c r="I134" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -7418,7 +7421,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F135" t="s">
         <v>521</v>
@@ -7427,10 +7430,10 @@
         <v>879</v>
       </c>
       <c r="H135" t="s">
-        <v>1054</v>
+        <v>1165</v>
       </c>
       <c r="I135" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -7444,7 +7447,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F136" t="s">
         <v>522</v>
@@ -7453,10 +7456,10 @@
         <v>880</v>
       </c>
       <c r="H136" t="s">
-        <v>1054</v>
+        <v>1165</v>
       </c>
       <c r="I136" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -7470,7 +7473,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F137" t="s">
         <v>523</v>
@@ -7479,10 +7482,10 @@
         <v>881</v>
       </c>
       <c r="H137" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I137" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -7496,7 +7499,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F138" t="s">
         <v>524</v>
@@ -7505,10 +7508,10 @@
         <v>882</v>
       </c>
       <c r="H138" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I138" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -7522,7 +7525,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F139" t="s">
         <v>525</v>
@@ -7531,10 +7534,10 @@
         <v>883</v>
       </c>
       <c r="H139" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I139" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -7548,7 +7551,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F140" t="s">
         <v>526</v>
@@ -7557,16 +7560,16 @@
         <v>788</v>
       </c>
       <c r="H140" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="I140" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="K140" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="L140" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -7580,7 +7583,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F141" t="s">
         <v>527</v>
@@ -7589,10 +7592,10 @@
         <v>780</v>
       </c>
       <c r="H141" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I141" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -7606,7 +7609,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F142" t="s">
         <v>528</v>
@@ -7615,10 +7618,10 @@
         <v>788</v>
       </c>
       <c r="H142" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I142" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -7632,7 +7635,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F143" t="s">
         <v>529</v>
@@ -7641,10 +7644,10 @@
         <v>788</v>
       </c>
       <c r="H143" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I143" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -7658,7 +7661,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F144" t="s">
         <v>530</v>
@@ -7667,10 +7670,10 @@
         <v>884</v>
       </c>
       <c r="H144" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I144" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7684,7 +7687,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F145" t="s">
         <v>531</v>
@@ -7693,10 +7696,10 @@
         <v>885</v>
       </c>
       <c r="H145" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I145" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7710,7 +7713,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F146" t="s">
         <v>532</v>
@@ -7719,10 +7722,10 @@
         <v>781</v>
       </c>
       <c r="H146" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I146" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7736,7 +7739,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F147" t="s">
         <v>533</v>
@@ -7745,10 +7748,10 @@
         <v>788</v>
       </c>
       <c r="H147" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I147" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7762,7 +7765,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F148" t="s">
         <v>534</v>
@@ -7771,10 +7774,10 @@
         <v>781</v>
       </c>
       <c r="H148" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I148" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7788,7 +7791,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F149" t="s">
         <v>535</v>
@@ -7797,10 +7800,10 @@
         <v>886</v>
       </c>
       <c r="H149" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I149" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7814,7 +7817,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F150" t="s">
         <v>536</v>
@@ -7823,10 +7826,10 @@
         <v>887</v>
       </c>
       <c r="H150" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I150" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7840,7 +7843,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F151" t="s">
         <v>537</v>
@@ -7849,10 +7852,10 @@
         <v>832</v>
       </c>
       <c r="H151" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I151" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7866,7 +7869,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F152" t="s">
         <v>538</v>
@@ -7875,10 +7878,10 @@
         <v>775</v>
       </c>
       <c r="H152" t="s">
-        <v>1126</v>
+        <v>1164</v>
       </c>
       <c r="I152" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7892,7 +7895,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F153" t="s">
         <v>539</v>
@@ -7901,10 +7904,10 @@
         <v>888</v>
       </c>
       <c r="H153" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="I153" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7918,7 +7921,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F154" t="s">
         <v>540</v>
@@ -7927,10 +7930,10 @@
         <v>781</v>
       </c>
       <c r="H154" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="I154" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7944,7 +7947,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F155" t="s">
         <v>541</v>
@@ -7953,10 +7956,10 @@
         <v>889</v>
       </c>
       <c r="H155" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I155" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7970,7 +7973,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F156" t="s">
         <v>542</v>
@@ -7979,10 +7982,10 @@
         <v>890</v>
       </c>
       <c r="H156" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I156" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7996,7 +7999,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F157" t="s">
         <v>543</v>
@@ -8005,10 +8008,10 @@
         <v>788</v>
       </c>
       <c r="H157" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="I157" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8022,7 +8025,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F158" t="s">
         <v>544</v>
@@ -8031,10 +8034,10 @@
         <v>775</v>
       </c>
       <c r="H158" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="I158" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8048,7 +8051,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F159" t="s">
         <v>545</v>
@@ -8057,10 +8060,10 @@
         <v>891</v>
       </c>
       <c r="H159" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="I159" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8074,7 +8077,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F160" t="s">
         <v>546</v>
@@ -8083,10 +8086,10 @@
         <v>892</v>
       </c>
       <c r="H160" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I160" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -8100,7 +8103,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F161" t="s">
         <v>547</v>
@@ -8109,10 +8112,10 @@
         <v>893</v>
       </c>
       <c r="H161" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I161" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -8126,7 +8129,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F162" t="s">
         <v>548</v>
@@ -8135,10 +8138,10 @@
         <v>781</v>
       </c>
       <c r="H162" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I162" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -8152,7 +8155,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F163" t="s">
         <v>549</v>
@@ -8161,10 +8164,10 @@
         <v>788</v>
       </c>
       <c r="H163" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I163" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -8178,7 +8181,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F164" t="s">
         <v>550</v>
@@ -8187,10 +8190,10 @@
         <v>775</v>
       </c>
       <c r="H164" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I164" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -8204,7 +8207,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F165" t="s">
         <v>551</v>
@@ -8213,10 +8216,10 @@
         <v>788</v>
       </c>
       <c r="H165" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I165" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -8230,7 +8233,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F166" t="s">
         <v>552</v>
@@ -8239,10 +8242,10 @@
         <v>846</v>
       </c>
       <c r="H166" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I166" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -8256,7 +8259,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F167" t="s">
         <v>553</v>
@@ -8265,10 +8268,10 @@
         <v>862</v>
       </c>
       <c r="H167" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I167" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -8282,7 +8285,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F168" t="s">
         <v>554</v>
@@ -8291,10 +8294,10 @@
         <v>788</v>
       </c>
       <c r="H168" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="I168" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -8308,7 +8311,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F169" t="s">
         <v>555</v>
@@ -8317,10 +8320,10 @@
         <v>781</v>
       </c>
       <c r="H169" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="I169" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -8334,7 +8337,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F170" t="s">
         <v>556</v>
@@ -8343,22 +8346,22 @@
         <v>894</v>
       </c>
       <c r="H170" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I170" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="K170" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="L170" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="M170" t="s">
         <v>1048</v>
       </c>
       <c r="N170" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -8372,7 +8375,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F171" t="s">
         <v>557</v>
@@ -8381,10 +8384,10 @@
         <v>895</v>
       </c>
       <c r="H171" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I171" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -8398,7 +8401,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F172" t="s">
         <v>558</v>
@@ -8407,10 +8410,10 @@
         <v>896</v>
       </c>
       <c r="H172" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I172" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -8424,7 +8427,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F173" t="s">
         <v>559</v>
@@ -8433,10 +8436,10 @@
         <v>810</v>
       </c>
       <c r="H173" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I173" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -8450,7 +8453,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F174" t="s">
         <v>560</v>
@@ -8459,10 +8462,10 @@
         <v>807</v>
       </c>
       <c r="H174" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I174" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -8476,7 +8479,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F175" t="s">
         <v>561</v>
@@ -8485,10 +8488,10 @@
         <v>897</v>
       </c>
       <c r="H175" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I175" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -8502,7 +8505,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F176" t="s">
         <v>562</v>
@@ -8511,10 +8514,10 @@
         <v>898</v>
       </c>
       <c r="H176" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I176" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8528,7 +8531,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F177" t="s">
         <v>563</v>
@@ -8537,10 +8540,10 @@
         <v>899</v>
       </c>
       <c r="H177" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I177" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8554,7 +8557,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F178" t="s">
         <v>564</v>
@@ -8563,10 +8566,10 @@
         <v>851</v>
       </c>
       <c r="H178" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I178" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8580,7 +8583,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F179" t="s">
         <v>565</v>
@@ -8589,10 +8592,10 @@
         <v>900</v>
       </c>
       <c r="H179" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I179" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8606,7 +8609,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F180" t="s">
         <v>566</v>
@@ -8615,10 +8618,10 @@
         <v>819</v>
       </c>
       <c r="H180" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="I180" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8632,7 +8635,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F181" t="s">
         <v>567</v>
@@ -8641,10 +8644,10 @@
         <v>781</v>
       </c>
       <c r="H181" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I181" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8658,7 +8661,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F182" t="s">
         <v>568</v>
@@ -8667,10 +8670,10 @@
         <v>901</v>
       </c>
       <c r="H182" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I182" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8684,7 +8687,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F183" t="s">
         <v>569</v>
@@ -8693,10 +8696,10 @@
         <v>902</v>
       </c>
       <c r="H183" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I183" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8710,7 +8713,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F184" t="s">
         <v>570</v>
@@ -8719,10 +8722,10 @@
         <v>903</v>
       </c>
       <c r="H184" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I184" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8736,7 +8739,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F185" t="s">
         <v>571</v>
@@ -8745,10 +8748,10 @@
         <v>904</v>
       </c>
       <c r="H185" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I185" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8762,7 +8765,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F186" t="s">
         <v>572</v>
@@ -8771,10 +8774,10 @@
         <v>905</v>
       </c>
       <c r="H186" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I186" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8788,7 +8791,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F187" t="s">
         <v>573</v>
@@ -8797,10 +8800,10 @@
         <v>906</v>
       </c>
       <c r="H187" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I187" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8814,7 +8817,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F188" t="s">
         <v>574</v>
@@ -8823,10 +8826,10 @@
         <v>907</v>
       </c>
       <c r="H188" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I188" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8840,7 +8843,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F189" t="s">
         <v>575</v>
@@ -8849,10 +8852,10 @@
         <v>854</v>
       </c>
       <c r="H189" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I189" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8866,7 +8869,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F190" t="s">
         <v>576</v>
@@ -8875,13 +8878,13 @@
         <v>908</v>
       </c>
       <c r="H190" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I190" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J190" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8895,7 +8898,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F191" t="s">
         <v>577</v>
@@ -8904,13 +8907,13 @@
         <v>909</v>
       </c>
       <c r="H191" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I191" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J191" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8924,7 +8927,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F192" t="s">
         <v>578</v>
@@ -8933,13 +8936,13 @@
         <v>910</v>
       </c>
       <c r="H192" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I192" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J192" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -8953,7 +8956,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F193" t="s">
         <v>579</v>
@@ -8962,13 +8965,13 @@
         <v>911</v>
       </c>
       <c r="H193" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I193" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J193" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -8982,7 +8985,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F194" t="s">
         <v>580</v>
@@ -8991,13 +8994,13 @@
         <v>912</v>
       </c>
       <c r="H194" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I194" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J194" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9011,7 +9014,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F195" t="s">
         <v>581</v>
@@ -9020,10 +9023,10 @@
         <v>913</v>
       </c>
       <c r="H195" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I195" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9037,7 +9040,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F196" t="s">
         <v>582</v>
@@ -9046,10 +9049,10 @@
         <v>914</v>
       </c>
       <c r="H196" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I196" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9063,7 +9066,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F197" t="s">
         <v>583</v>
@@ -9072,10 +9075,10 @@
         <v>915</v>
       </c>
       <c r="H197" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I197" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9089,7 +9092,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F198" t="s">
         <v>584</v>
@@ -9098,10 +9101,10 @@
         <v>916</v>
       </c>
       <c r="H198" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I198" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9115,7 +9118,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F199" t="s">
         <v>585</v>
@@ -9124,10 +9127,10 @@
         <v>846</v>
       </c>
       <c r="H199" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I199" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9141,7 +9144,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F200" t="s">
         <v>586</v>
@@ -9150,10 +9153,10 @@
         <v>781</v>
       </c>
       <c r="H200" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I200" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9167,7 +9170,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F201" t="s">
         <v>587</v>
@@ -9176,10 +9179,10 @@
         <v>917</v>
       </c>
       <c r="H201" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I201" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9193,7 +9196,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F202" t="s">
         <v>588</v>
@@ -9202,10 +9205,10 @@
         <v>918</v>
       </c>
       <c r="H202" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I202" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9219,7 +9222,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F203" t="s">
         <v>589</v>
@@ -9228,10 +9231,10 @@
         <v>788</v>
       </c>
       <c r="H203" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I203" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9245,7 +9248,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F204" t="s">
         <v>590</v>
@@ -9254,10 +9257,10 @@
         <v>788</v>
       </c>
       <c r="H204" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I204" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9271,7 +9274,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F205" t="s">
         <v>591</v>
@@ -9280,10 +9283,10 @@
         <v>781</v>
       </c>
       <c r="H205" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I205" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9297,7 +9300,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F206" t="s">
         <v>592</v>
@@ -9306,10 +9309,10 @@
         <v>919</v>
       </c>
       <c r="H206" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I206" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9323,7 +9326,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F207" t="s">
         <v>593</v>
@@ -9332,10 +9335,10 @@
         <v>920</v>
       </c>
       <c r="H207" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I207" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9349,7 +9352,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F208" t="s">
         <v>594</v>
@@ -9358,10 +9361,10 @@
         <v>824</v>
       </c>
       <c r="H208" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I208" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9375,7 +9378,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F209" t="s">
         <v>595</v>
@@ -9384,10 +9387,10 @@
         <v>921</v>
       </c>
       <c r="H209" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I209" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9401,7 +9404,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F210" t="s">
         <v>596</v>
@@ -9410,10 +9413,10 @@
         <v>922</v>
       </c>
       <c r="H210" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I210" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9427,7 +9430,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F211" t="s">
         <v>597</v>
@@ -9436,10 +9439,10 @@
         <v>923</v>
       </c>
       <c r="H211" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I211" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9453,7 +9456,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F212" t="s">
         <v>598</v>
@@ -9462,10 +9465,10 @@
         <v>788</v>
       </c>
       <c r="H212" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I212" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9479,7 +9482,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F213" t="s">
         <v>599</v>
@@ -9488,10 +9491,10 @@
         <v>788</v>
       </c>
       <c r="H213" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I213" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9505,7 +9508,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F214" t="s">
         <v>600</v>
@@ -9514,10 +9517,10 @@
         <v>924</v>
       </c>
       <c r="H214" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I214" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9531,7 +9534,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F215" t="s">
         <v>601</v>
@@ -9540,10 +9543,10 @@
         <v>819</v>
       </c>
       <c r="H215" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I215" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9557,7 +9560,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F216" t="s">
         <v>602</v>
@@ -9566,10 +9569,10 @@
         <v>925</v>
       </c>
       <c r="H216" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I216" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9583,7 +9586,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F217" t="s">
         <v>603</v>
@@ -9592,10 +9595,10 @@
         <v>926</v>
       </c>
       <c r="H217" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I217" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9609,7 +9612,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F218" t="s">
         <v>604</v>
@@ -9618,10 +9621,10 @@
         <v>788</v>
       </c>
       <c r="H218" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="I218" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9635,7 +9638,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F219" t="s">
         <v>605</v>
@@ -9644,10 +9647,10 @@
         <v>828</v>
       </c>
       <c r="H219" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I219" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9661,7 +9664,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F220" t="s">
         <v>606</v>
@@ -9670,10 +9673,10 @@
         <v>788</v>
       </c>
       <c r="H220" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I220" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9687,7 +9690,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F221" t="s">
         <v>607</v>
@@ -9696,10 +9699,10 @@
         <v>927</v>
       </c>
       <c r="H221" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I221" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9713,7 +9716,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F222" t="s">
         <v>608</v>
@@ -9722,10 +9725,10 @@
         <v>928</v>
       </c>
       <c r="H222" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I222" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9739,7 +9742,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F223" t="s">
         <v>609</v>
@@ -9748,10 +9751,10 @@
         <v>929</v>
       </c>
       <c r="H223" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I223" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9765,7 +9768,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F224" t="s">
         <v>610</v>
@@ -9774,10 +9777,10 @@
         <v>875</v>
       </c>
       <c r="H224" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I224" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9791,7 +9794,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F225" t="s">
         <v>611</v>
@@ -9800,10 +9803,10 @@
         <v>930</v>
       </c>
       <c r="H225" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I225" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9817,7 +9820,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F226" t="s">
         <v>612</v>
@@ -9826,10 +9829,10 @@
         <v>798</v>
       </c>
       <c r="H226" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I226" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9843,7 +9846,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F227" t="s">
         <v>613</v>
@@ -9855,7 +9858,7 @@
         <v>1025</v>
       </c>
       <c r="I227" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9869,7 +9872,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F228" t="s">
         <v>614</v>
@@ -9881,7 +9884,7 @@
         <v>1023</v>
       </c>
       <c r="I228" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9895,7 +9898,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F229" t="s">
         <v>615</v>
@@ -9904,10 +9907,10 @@
         <v>788</v>
       </c>
       <c r="H229" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="I229" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9921,7 +9924,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F230" t="s">
         <v>616</v>
@@ -9930,10 +9933,10 @@
         <v>781</v>
       </c>
       <c r="H230" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="I230" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9947,7 +9950,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F231" t="s">
         <v>617</v>
@@ -9956,13 +9959,13 @@
         <v>932</v>
       </c>
       <c r="H231" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="I231" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J231" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9976,7 +9979,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F232" t="s">
         <v>618</v>
@@ -9985,10 +9988,10 @@
         <v>860</v>
       </c>
       <c r="H232" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I232" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10002,7 +10005,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F233" t="s">
         <v>619</v>
@@ -10011,13 +10014,13 @@
         <v>788</v>
       </c>
       <c r="H233" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="I233" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J233" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10031,7 +10034,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F234" t="s">
         <v>620</v>
@@ -10043,7 +10046,7 @@
         <v>1022</v>
       </c>
       <c r="I234" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10057,7 +10060,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F235" t="s">
         <v>621</v>
@@ -10069,7 +10072,7 @@
         <v>1022</v>
       </c>
       <c r="I235" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10083,7 +10086,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F236" t="s">
         <v>622</v>
@@ -10092,13 +10095,13 @@
         <v>935</v>
       </c>
       <c r="H236" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="I236" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J236" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10112,7 +10115,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F237" t="s">
         <v>623</v>
@@ -10121,10 +10124,10 @@
         <v>788</v>
       </c>
       <c r="H237" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="I237" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10138,7 +10141,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F238" t="s">
         <v>624</v>
@@ -10147,10 +10150,10 @@
         <v>775</v>
       </c>
       <c r="H238" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I238" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10164,7 +10167,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F239" t="s">
         <v>625</v>
@@ -10173,10 +10176,10 @@
         <v>788</v>
       </c>
       <c r="H239" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I239" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10190,7 +10193,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F240" t="s">
         <v>626</v>
@@ -10199,10 +10202,10 @@
         <v>936</v>
       </c>
       <c r="H240" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I240" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10216,7 +10219,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F241" t="s">
         <v>627</v>
@@ -10225,10 +10228,10 @@
         <v>781</v>
       </c>
       <c r="H241" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="I241" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10242,7 +10245,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F242" t="s">
         <v>628</v>
@@ -10251,10 +10254,10 @@
         <v>780</v>
       </c>
       <c r="H242" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="I242" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10268,7 +10271,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F243" t="s">
         <v>629</v>
@@ -10277,10 +10280,10 @@
         <v>937</v>
       </c>
       <c r="H243" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I243" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10294,7 +10297,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F244" t="s">
         <v>630</v>
@@ -10303,13 +10306,13 @@
         <v>938</v>
       </c>
       <c r="H244" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="I244" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J244" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10323,7 +10326,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F245" t="s">
         <v>631</v>
@@ -10332,10 +10335,10 @@
         <v>939</v>
       </c>
       <c r="H245" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="I245" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10349,7 +10352,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F246" t="s">
         <v>632</v>
@@ -10358,10 +10361,10 @@
         <v>781</v>
       </c>
       <c r="H246" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I246" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10375,7 +10378,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F247" t="s">
         <v>633</v>
@@ -10387,7 +10390,7 @@
         <v>1037</v>
       </c>
       <c r="I247" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10401,7 +10404,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F248" t="s">
         <v>634</v>
@@ -10413,7 +10416,7 @@
         <v>1037</v>
       </c>
       <c r="I248" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10427,7 +10430,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F249" t="s">
         <v>635</v>
@@ -10439,7 +10442,7 @@
         <v>1037</v>
       </c>
       <c r="I249" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10453,7 +10456,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F250" t="s">
         <v>636</v>
@@ -10462,10 +10465,10 @@
         <v>788</v>
       </c>
       <c r="H250" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I250" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10479,7 +10482,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F251" t="s">
         <v>637</v>
@@ -10488,10 +10491,10 @@
         <v>831</v>
       </c>
       <c r="H251" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="I251" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10505,7 +10508,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F252" t="s">
         <v>638</v>
@@ -10514,10 +10517,10 @@
         <v>943</v>
       </c>
       <c r="H252" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="I252" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -10531,7 +10534,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F253" t="s">
         <v>639</v>
@@ -10540,10 +10543,10 @@
         <v>788</v>
       </c>
       <c r="H253" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I253" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -10557,7 +10560,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F254" t="s">
         <v>640</v>
@@ -10566,10 +10569,10 @@
         <v>944</v>
       </c>
       <c r="H254" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="I254" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -10583,7 +10586,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F255" t="s">
         <v>641</v>
@@ -10592,10 +10595,10 @@
         <v>788</v>
       </c>
       <c r="H255" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I255" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -10609,7 +10612,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F256" t="s">
         <v>642</v>
@@ -10621,7 +10624,7 @@
         <v>1037</v>
       </c>
       <c r="I256" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -10635,7 +10638,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F257" t="s">
         <v>643</v>
@@ -10647,7 +10650,7 @@
         <v>1037</v>
       </c>
       <c r="I257" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -10661,7 +10664,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F258" t="s">
         <v>644</v>
@@ -10670,10 +10673,10 @@
         <v>947</v>
       </c>
       <c r="H258" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="I258" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -10687,7 +10690,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F259" t="s">
         <v>645</v>
@@ -10696,10 +10699,10 @@
         <v>948</v>
       </c>
       <c r="H259" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="I259" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -10713,7 +10716,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F260" t="s">
         <v>646</v>
@@ -10722,10 +10725,10 @@
         <v>949</v>
       </c>
       <c r="H260" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="I260" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -10739,7 +10742,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F261" t="s">
         <v>647</v>
@@ -10748,10 +10751,10 @@
         <v>950</v>
       </c>
       <c r="H261" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I261" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -10768,7 +10771,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F262" t="s">
         <v>648</v>
@@ -10777,10 +10780,10 @@
         <v>824</v>
       </c>
       <c r="H262" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I262" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -10797,7 +10800,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F263" t="s">
         <v>649</v>
@@ -10806,10 +10809,10 @@
         <v>951</v>
       </c>
       <c r="H263" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I263" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -10823,7 +10826,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F264" t="s">
         <v>650</v>
@@ -10832,10 +10835,10 @@
         <v>891</v>
       </c>
       <c r="H264" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I264" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -10849,7 +10852,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F265" t="s">
         <v>651</v>
@@ -10858,10 +10861,10 @@
         <v>839</v>
       </c>
       <c r="H265" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I265" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -10875,7 +10878,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F266" t="s">
         <v>652</v>
@@ -10884,10 +10887,10 @@
         <v>952</v>
       </c>
       <c r="H266" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I266" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -10901,7 +10904,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F267" t="s">
         <v>653</v>
@@ -10910,10 +10913,10 @@
         <v>953</v>
       </c>
       <c r="H267" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I267" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -10927,7 +10930,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F268" t="s">
         <v>654</v>
@@ -10936,10 +10939,10 @@
         <v>838</v>
       </c>
       <c r="H268" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I268" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -10953,7 +10956,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F269" t="s">
         <v>655</v>
@@ -10962,13 +10965,13 @@
         <v>954</v>
       </c>
       <c r="H269" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I269" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J269" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -10982,7 +10985,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F270" t="s">
         <v>656</v>
@@ -10991,13 +10994,13 @@
         <v>955</v>
       </c>
       <c r="H270" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I270" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J270" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -11011,7 +11014,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F271" t="s">
         <v>657</v>
@@ -11020,10 +11023,10 @@
         <v>788</v>
       </c>
       <c r="H271" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I271" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -11037,7 +11040,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F272" t="s">
         <v>658</v>
@@ -11046,10 +11049,10 @@
         <v>788</v>
       </c>
       <c r="H272" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I272" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11063,7 +11066,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F273" t="s">
         <v>659</v>
@@ -11072,13 +11075,13 @@
         <v>956</v>
       </c>
       <c r="H273" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I273" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J273" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11092,7 +11095,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F274" t="s">
         <v>660</v>
@@ -11101,10 +11104,10 @@
         <v>781</v>
       </c>
       <c r="H274" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I274" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11118,7 +11121,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F275" t="s">
         <v>661</v>
@@ -11127,10 +11130,10 @@
         <v>957</v>
       </c>
       <c r="H275" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I275" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11144,7 +11147,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F276" t="s">
         <v>662</v>
@@ -11153,10 +11156,10 @@
         <v>827</v>
       </c>
       <c r="H276" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I276" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11170,7 +11173,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F277" t="s">
         <v>663</v>
@@ -11179,13 +11182,13 @@
         <v>794</v>
       </c>
       <c r="H277" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I277" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J277" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11199,7 +11202,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F278" t="s">
         <v>664</v>
@@ -11208,10 +11211,10 @@
         <v>780</v>
       </c>
       <c r="H278" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I278" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11225,7 +11228,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F279" t="s">
         <v>665</v>
@@ -11234,10 +11237,10 @@
         <v>780</v>
       </c>
       <c r="H279" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I279" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11251,7 +11254,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F280" t="s">
         <v>666</v>
@@ -11260,10 +11263,10 @@
         <v>780</v>
       </c>
       <c r="H280" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I280" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -11277,7 +11280,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F281" t="s">
         <v>667</v>
@@ -11286,10 +11289,10 @@
         <v>958</v>
       </c>
       <c r="H281" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="I281" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -11303,7 +11306,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F282" t="s">
         <v>668</v>
@@ -11312,10 +11315,10 @@
         <v>959</v>
       </c>
       <c r="H282" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="I282" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -11329,7 +11332,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F283" t="s">
         <v>669</v>
@@ -11338,10 +11341,10 @@
         <v>960</v>
       </c>
       <c r="H283" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="I283" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -11355,7 +11358,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F284" t="s">
         <v>670</v>
@@ -11364,10 +11367,10 @@
         <v>781</v>
       </c>
       <c r="H284" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I284" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -11381,7 +11384,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F285" t="s">
         <v>671</v>
@@ -11390,10 +11393,10 @@
         <v>837</v>
       </c>
       <c r="H285" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I285" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -11407,7 +11410,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F286" t="s">
         <v>672</v>
@@ -11416,10 +11419,10 @@
         <v>961</v>
       </c>
       <c r="H286" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I286" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -11433,7 +11436,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F287" t="s">
         <v>673</v>
@@ -11442,10 +11445,10 @@
         <v>781</v>
       </c>
       <c r="H287" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I287" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -11459,7 +11462,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F288" t="s">
         <v>674</v>
@@ -11468,10 +11471,10 @@
         <v>962</v>
       </c>
       <c r="H288" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I288" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11485,7 +11488,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F289" t="s">
         <v>675</v>
@@ -11494,10 +11497,10 @@
         <v>788</v>
       </c>
       <c r="H289" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="I289" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11511,7 +11514,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F290" t="s">
         <v>676</v>
@@ -11520,10 +11523,10 @@
         <v>781</v>
       </c>
       <c r="H290" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="I290" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11537,7 +11540,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F291" t="s">
         <v>677</v>
@@ -11546,10 +11549,10 @@
         <v>822</v>
       </c>
       <c r="H291" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="I291" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11563,7 +11566,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F292" t="s">
         <v>678</v>
@@ -11572,10 +11575,10 @@
         <v>929</v>
       </c>
       <c r="H292" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="I292" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11592,7 +11595,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F293" t="s">
         <v>679</v>
@@ -11601,10 +11604,10 @@
         <v>828</v>
       </c>
       <c r="H293" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="I293" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11618,7 +11621,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F294" t="s">
         <v>680</v>
@@ -11627,10 +11630,10 @@
         <v>963</v>
       </c>
       <c r="H294" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I294" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11644,7 +11647,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F295" t="s">
         <v>681</v>
@@ -11653,10 +11656,10 @@
         <v>964</v>
       </c>
       <c r="H295" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="I295" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11670,7 +11673,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F296" t="s">
         <v>682</v>
@@ -11679,10 +11682,10 @@
         <v>965</v>
       </c>
       <c r="H296" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="I296" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11696,7 +11699,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F297" t="s">
         <v>683</v>
@@ -11705,10 +11708,10 @@
         <v>966</v>
       </c>
       <c r="H297" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I297" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11722,7 +11725,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F298" t="s">
         <v>684</v>
@@ -11731,10 +11734,10 @@
         <v>967</v>
       </c>
       <c r="H298" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="I298" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11748,7 +11751,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F299" t="s">
         <v>685</v>
@@ -11757,10 +11760,10 @@
         <v>797</v>
       </c>
       <c r="H299" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I299" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11774,7 +11777,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F300" t="s">
         <v>686</v>
@@ -11783,10 +11786,10 @@
         <v>946</v>
       </c>
       <c r="H300" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I300" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11800,7 +11803,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F301" t="s">
         <v>687</v>
@@ -11809,10 +11812,10 @@
         <v>968</v>
       </c>
       <c r="H301" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I301" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11826,7 +11829,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F302" t="s">
         <v>688</v>
@@ -11835,10 +11838,10 @@
         <v>780</v>
       </c>
       <c r="H302" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I302" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11852,7 +11855,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F303" t="s">
         <v>689</v>
@@ -11861,10 +11864,10 @@
         <v>781</v>
       </c>
       <c r="H303" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I303" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11878,7 +11881,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F304" t="s">
         <v>690</v>
@@ -11887,10 +11890,10 @@
         <v>788</v>
       </c>
       <c r="H304" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I304" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -11904,7 +11907,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F305" t="s">
         <v>691</v>
@@ -11913,13 +11916,13 @@
         <v>969</v>
       </c>
       <c r="H305" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I305" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J305" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -11933,7 +11936,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F306" t="s">
         <v>692</v>
@@ -11942,13 +11945,13 @@
         <v>970</v>
       </c>
       <c r="H306" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I306" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J306" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -11962,7 +11965,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F307" t="s">
         <v>693</v>
@@ -11971,13 +11974,13 @@
         <v>971</v>
       </c>
       <c r="H307" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I307" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J307" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -11991,7 +11994,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F308" t="s">
         <v>694</v>
@@ -12000,13 +12003,13 @@
         <v>972</v>
       </c>
       <c r="H308" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I308" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J308" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -12020,7 +12023,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F309" t="s">
         <v>695</v>
@@ -12029,13 +12032,13 @@
         <v>973</v>
       </c>
       <c r="H309" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I309" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="J309" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -12049,7 +12052,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F310" t="s">
         <v>696</v>
@@ -12058,10 +12061,10 @@
         <v>974</v>
       </c>
       <c r="H310" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I310" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -12075,7 +12078,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F311" t="s">
         <v>697</v>
@@ -12084,10 +12087,10 @@
         <v>975</v>
       </c>
       <c r="H311" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I311" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -12101,7 +12104,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F312" t="s">
         <v>698</v>
@@ -12110,10 +12113,10 @@
         <v>976</v>
       </c>
       <c r="H312" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I312" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -12127,7 +12130,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F313" t="s">
         <v>699</v>
@@ -12136,10 +12139,10 @@
         <v>977</v>
       </c>
       <c r="H313" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I313" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -12153,7 +12156,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F314" t="s">
         <v>700</v>
@@ -12162,10 +12165,10 @@
         <v>978</v>
       </c>
       <c r="H314" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I314" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -12179,7 +12182,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F315" t="s">
         <v>701</v>
@@ -12188,10 +12191,10 @@
         <v>979</v>
       </c>
       <c r="H315" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I315" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -12205,7 +12208,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F316" t="s">
         <v>702</v>
@@ -12214,10 +12217,10 @@
         <v>980</v>
       </c>
       <c r="H316" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I316" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -12231,7 +12234,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F317" t="s">
         <v>703</v>
@@ -12240,10 +12243,10 @@
         <v>827</v>
       </c>
       <c r="H317" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I317" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -12257,7 +12260,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F318" t="s">
         <v>704</v>
@@ -12266,10 +12269,10 @@
         <v>981</v>
       </c>
       <c r="H318" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I318" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -12283,7 +12286,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F319" t="s">
         <v>705</v>
@@ -12292,10 +12295,10 @@
         <v>982</v>
       </c>
       <c r="H319" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I319" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -12309,7 +12312,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F320" t="s">
         <v>706</v>
@@ -12318,10 +12321,10 @@
         <v>788</v>
       </c>
       <c r="H320" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I320" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12335,7 +12338,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F321" t="s">
         <v>707</v>
@@ -12344,10 +12347,10 @@
         <v>983</v>
       </c>
       <c r="H321" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I321" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12361,7 +12364,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F322" t="s">
         <v>708</v>
@@ -12370,10 +12373,10 @@
         <v>846</v>
       </c>
       <c r="H322" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I322" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12387,7 +12390,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F323" t="s">
         <v>709</v>
@@ -12396,10 +12399,10 @@
         <v>984</v>
       </c>
       <c r="H323" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I323" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12413,7 +12416,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F324" t="s">
         <v>710</v>
@@ -12422,10 +12425,10 @@
         <v>979</v>
       </c>
       <c r="H324" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I324" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12439,7 +12442,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F325" t="s">
         <v>711</v>
@@ -12448,10 +12451,10 @@
         <v>985</v>
       </c>
       <c r="H325" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I325" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12465,7 +12468,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F326" t="s">
         <v>712</v>
@@ -12474,10 +12477,10 @@
         <v>781</v>
       </c>
       <c r="H326" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I326" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12491,7 +12494,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F327" t="s">
         <v>713</v>
@@ -12500,10 +12503,10 @@
         <v>986</v>
       </c>
       <c r="H327" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I327" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12517,7 +12520,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F328" t="s">
         <v>714</v>
@@ -12526,10 +12529,10 @@
         <v>987</v>
       </c>
       <c r="H328" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I328" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12543,7 +12546,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F329" t="s">
         <v>715</v>
@@ -12552,10 +12555,10 @@
         <v>846</v>
       </c>
       <c r="H329" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I329" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12569,7 +12572,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F330" t="s">
         <v>716</v>
@@ -12578,10 +12581,10 @@
         <v>846</v>
       </c>
       <c r="H330" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I330" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12595,7 +12598,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F331" t="s">
         <v>717</v>
@@ -12604,10 +12607,10 @@
         <v>988</v>
       </c>
       <c r="H331" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I331" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12621,7 +12624,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F332" t="s">
         <v>718</v>
@@ -12630,10 +12633,10 @@
         <v>989</v>
       </c>
       <c r="H332" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I332" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12647,7 +12650,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F333" t="s">
         <v>719</v>
@@ -12656,10 +12659,10 @@
         <v>990</v>
       </c>
       <c r="H333" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I333" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12673,7 +12676,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F334" t="s">
         <v>720</v>
@@ -12682,10 +12685,10 @@
         <v>923</v>
       </c>
       <c r="H334" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I334" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12699,7 +12702,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F335" t="s">
         <v>721</v>
@@ -12708,10 +12711,10 @@
         <v>991</v>
       </c>
       <c r="H335" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I335" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12725,7 +12728,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F336" t="s">
         <v>722</v>
@@ -12734,10 +12737,10 @@
         <v>979</v>
       </c>
       <c r="H336" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I336" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12751,7 +12754,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F337" t="s">
         <v>723</v>
@@ -12760,10 +12763,10 @@
         <v>992</v>
       </c>
       <c r="H337" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I337" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12777,7 +12780,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F338" t="s">
         <v>724</v>
@@ -12786,10 +12789,10 @@
         <v>993</v>
       </c>
       <c r="H338" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I338" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12803,7 +12806,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F339" t="s">
         <v>725</v>
@@ -12812,10 +12815,10 @@
         <v>846</v>
       </c>
       <c r="H339" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I339" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12829,7 +12832,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F340" t="s">
         <v>726</v>
@@ -12838,10 +12841,10 @@
         <v>994</v>
       </c>
       <c r="H340" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I340" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12855,7 +12858,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F341" t="s">
         <v>727</v>
@@ -12864,10 +12867,10 @@
         <v>995</v>
       </c>
       <c r="H341" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I341" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12881,7 +12884,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F342" t="s">
         <v>728</v>
@@ -12890,10 +12893,10 @@
         <v>996</v>
       </c>
       <c r="H342" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I342" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -12907,7 +12910,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F343" t="s">
         <v>729</v>
@@ -12916,10 +12919,10 @@
         <v>996</v>
       </c>
       <c r="H343" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I343" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -12933,7 +12936,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F344" t="s">
         <v>730</v>
@@ -12942,10 +12945,10 @@
         <v>979</v>
       </c>
       <c r="H344" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I344" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -12959,7 +12962,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F345" t="s">
         <v>731</v>
@@ -12968,10 +12971,10 @@
         <v>781</v>
       </c>
       <c r="H345" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I345" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -12988,7 +12991,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F346" t="s">
         <v>732</v>
@@ -12997,10 +13000,10 @@
         <v>997</v>
       </c>
       <c r="H346" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I346" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13017,7 +13020,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F347" t="s">
         <v>733</v>
@@ -13026,10 +13029,10 @@
         <v>998</v>
       </c>
       <c r="H347" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I347" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13046,7 +13049,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F348" t="s">
         <v>734</v>
@@ -13055,10 +13058,10 @@
         <v>963</v>
       </c>
       <c r="H348" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I348" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13075,7 +13078,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F349" t="s">
         <v>735</v>
@@ -13084,10 +13087,10 @@
         <v>846</v>
       </c>
       <c r="H349" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I349" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13104,7 +13107,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F350" t="s">
         <v>736</v>
@@ -13113,10 +13116,10 @@
         <v>999</v>
       </c>
       <c r="H350" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="I350" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13133,7 +13136,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F351" t="s">
         <v>737</v>
@@ -13142,10 +13145,10 @@
         <v>930</v>
       </c>
       <c r="H351" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="I351" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13162,7 +13165,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F352" t="s">
         <v>738</v>
@@ -13171,10 +13174,10 @@
         <v>1000</v>
       </c>
       <c r="H352" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="I352" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
@@ -13188,7 +13191,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F353" t="s">
         <v>739</v>
@@ -13197,10 +13200,10 @@
         <v>996</v>
       </c>
       <c r="H353" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="I353" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
@@ -13214,7 +13217,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F354" t="s">
         <v>740</v>
@@ -13223,10 +13226,10 @@
         <v>996</v>
       </c>
       <c r="H354" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="I354" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
@@ -13240,7 +13243,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F355" t="s">
         <v>741</v>
@@ -13249,10 +13252,10 @@
         <v>979</v>
       </c>
       <c r="H355" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I355" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.3">
@@ -13266,7 +13269,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F356" t="s">
         <v>742</v>
@@ -13275,10 +13278,10 @@
         <v>996</v>
       </c>
       <c r="H356" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I356" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.3">
@@ -13292,7 +13295,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F357" t="s">
         <v>743</v>
@@ -13301,10 +13304,10 @@
         <v>979</v>
       </c>
       <c r="H357" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I357" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.3">
@@ -13318,7 +13321,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F358" t="s">
         <v>744</v>
@@ -13327,10 +13330,10 @@
         <v>788</v>
       </c>
       <c r="H358" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I358" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.3">
@@ -13344,7 +13347,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F359" t="s">
         <v>745</v>
@@ -13353,10 +13356,10 @@
         <v>1001</v>
       </c>
       <c r="H359" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I359" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.3">
@@ -13370,7 +13373,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F360" t="s">
         <v>746</v>
@@ -13379,22 +13382,22 @@
         <v>1002</v>
       </c>
       <c r="H360" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I360" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K360" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L360" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M360" t="s">
         <v>1151</v>
       </c>
-      <c r="K360" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L360" t="s">
-        <v>1152</v>
-      </c>
-      <c r="M360" t="s">
-        <v>1158</v>
-      </c>
       <c r="N360" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.3">
@@ -13408,7 +13411,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F361" t="s">
         <v>747</v>
@@ -13417,10 +13420,10 @@
         <v>996</v>
       </c>
       <c r="H361" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="I361" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
@@ -13434,7 +13437,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F362" t="s">
         <v>748</v>
@@ -13443,10 +13446,10 @@
         <v>1003</v>
       </c>
       <c r="H362" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="I362" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.3">
@@ -13460,7 +13463,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F363" t="s">
         <v>749</v>
@@ -13469,10 +13472,10 @@
         <v>1004</v>
       </c>
       <c r="H363" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="I363" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.3">
@@ -13486,7 +13489,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F364" t="s">
         <v>750</v>
@@ -13495,10 +13498,10 @@
         <v>1005</v>
       </c>
       <c r="H364" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="I364" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.3">
@@ -13512,7 +13515,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F365" t="s">
         <v>751</v>
@@ -13521,10 +13524,10 @@
         <v>1006</v>
       </c>
       <c r="H365" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="I365" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.3">
@@ -13538,7 +13541,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F366" t="s">
         <v>752</v>
@@ -13547,10 +13550,10 @@
         <v>1007</v>
       </c>
       <c r="H366" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="I366" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.3">
@@ -13564,7 +13567,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F367" t="s">
         <v>753</v>
@@ -13573,10 +13576,10 @@
         <v>1008</v>
       </c>
       <c r="H367" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="I367" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.3">
@@ -13590,7 +13593,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F368" t="s">
         <v>754</v>
@@ -13599,10 +13602,10 @@
         <v>979</v>
       </c>
       <c r="H368" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="I368" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -13616,7 +13619,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F369" t="s">
         <v>755</v>
@@ -13625,10 +13628,10 @@
         <v>1009</v>
       </c>
       <c r="H369" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I369" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -13642,7 +13645,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F370" t="s">
         <v>756</v>
@@ -13651,10 +13654,10 @@
         <v>1010</v>
       </c>
       <c r="H370" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I370" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -13668,7 +13671,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F371" t="s">
         <v>757</v>
@@ -13677,10 +13680,10 @@
         <v>1011</v>
       </c>
       <c r="H371" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I371" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -13694,7 +13697,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F372" t="s">
         <v>758</v>
@@ -13703,10 +13706,10 @@
         <v>1012</v>
       </c>
       <c r="H372" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I372" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -13720,7 +13723,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F373" t="s">
         <v>759</v>
@@ -13729,10 +13732,10 @@
         <v>1013</v>
       </c>
       <c r="H373" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I373" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -13746,7 +13749,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F374" t="s">
         <v>760</v>
@@ -13755,10 +13758,10 @@
         <v>979</v>
       </c>
       <c r="H374" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I374" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -13772,7 +13775,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F375" t="s">
         <v>761</v>
@@ -13781,10 +13784,10 @@
         <v>1014</v>
       </c>
       <c r="H375" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I375" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -13798,7 +13801,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F376" t="s">
         <v>762</v>
@@ -13807,16 +13810,16 @@
         <v>1015</v>
       </c>
       <c r="H376" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K376" t="s">
         <v>1111</v>
       </c>
-      <c r="I376" t="s">
-        <v>1151</v>
-      </c>
-      <c r="K376" t="s">
-        <v>1112</v>
-      </c>
       <c r="L376" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -13830,7 +13833,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F377" t="s">
         <v>763</v>
@@ -13839,10 +13842,10 @@
         <v>1016</v>
       </c>
       <c r="H377" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I377" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -13856,7 +13859,7 @@
         <v>379</v>
       </c>
       <c r="E378" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F378" t="s">
         <v>764</v>
@@ -13865,10 +13868,10 @@
         <v>985</v>
       </c>
       <c r="H378" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I378" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -13882,7 +13885,7 @@
         <v>380</v>
       </c>
       <c r="E379" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F379" t="s">
         <v>765</v>
@@ -13891,10 +13894,10 @@
         <v>1006</v>
       </c>
       <c r="H379" t="s">
-        <v>1113</v>
+        <v>1170</v>
       </c>
       <c r="I379" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -13908,7 +13911,7 @@
         <v>381</v>
       </c>
       <c r="E380" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F380" t="s">
         <v>766</v>
@@ -13917,10 +13920,10 @@
         <v>996</v>
       </c>
       <c r="H380" t="s">
-        <v>1113</v>
+        <v>1170</v>
       </c>
       <c r="I380" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -13934,7 +13937,7 @@
         <v>382</v>
       </c>
       <c r="E381" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F381" t="s">
         <v>767</v>
@@ -13943,10 +13946,10 @@
         <v>979</v>
       </c>
       <c r="H381" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="I381" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -13960,7 +13963,7 @@
         <v>383</v>
       </c>
       <c r="E382" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F382" t="s">
         <v>768</v>
@@ -13969,10 +13972,10 @@
         <v>1006</v>
       </c>
       <c r="H382" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="I382" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -13986,7 +13989,7 @@
         <v>384</v>
       </c>
       <c r="E383" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F383" t="s">
         <v>769</v>
@@ -13998,7 +14001,7 @@
         <v>1052</v>
       </c>
       <c r="I383" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
@@ -14012,7 +14015,7 @@
         <v>385</v>
       </c>
       <c r="E384" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F384" t="s">
         <v>770</v>
@@ -14024,7 +14027,7 @@
         <v>1052</v>
       </c>
       <c r="I384" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14038,7 +14041,7 @@
         <v>386</v>
       </c>
       <c r="E385" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F385" t="s">
         <v>771</v>
@@ -14050,7 +14053,7 @@
         <v>1052</v>
       </c>
       <c r="I385" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14064,7 +14067,7 @@
         <v>387</v>
       </c>
       <c r="E386" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F386" t="s">
         <v>772</v>
@@ -14076,7 +14079,7 @@
         <v>1052</v>
       </c>
       <c r="I386" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14090,7 +14093,7 @@
         <v>388</v>
       </c>
       <c r="E387" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F387" t="s">
         <v>773</v>
@@ -14102,7 +14105,7 @@
         <v>1052</v>
       </c>
       <c r="I387" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
